--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.9936299979959</v>
+        <v>256.1605584839638</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.4272811788987</v>
+        <v>350.4901771238501</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.6138704840285</v>
+        <v>317.0398865353075</v>
       </c>
       <c r="AD2" t="n">
-        <v>212993.6299979959</v>
+        <v>256160.5584839638</v>
       </c>
       <c r="AE2" t="n">
-        <v>291427.2811788987</v>
+        <v>350490.17712385</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.719822583393759e-06</v>
+        <v>3.921071431467183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.17476851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>263613.8704840285</v>
+        <v>317039.8865353075</v>
       </c>
     </row>
     <row r="3">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.5089306669984</v>
+        <v>216.6757696444152</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.4025736122606</v>
+        <v>296.4653470876635</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.7452051833798</v>
+        <v>268.1711104534324</v>
       </c>
       <c r="AD3" t="n">
-        <v>173508.9306669984</v>
+        <v>216675.7696444152</v>
       </c>
       <c r="AE3" t="n">
-        <v>237402.5736122606</v>
+        <v>296465.3470876635</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.090024742008547e-06</v>
+        <v>4.454778709609073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.837962962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>214745.2051833798</v>
+        <v>268171.1104534324</v>
       </c>
     </row>
     <row r="4">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.9863742886605</v>
+        <v>196.519934979145</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.636903636116</v>
+        <v>268.8872448859868</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.4841886224967</v>
+        <v>243.2250236197652</v>
       </c>
       <c r="AD4" t="n">
-        <v>161986.3742886605</v>
+        <v>196519.934979145</v>
       </c>
       <c r="AE4" t="n">
-        <v>221636.903636116</v>
+        <v>268887.2448859868</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.346104430674414e-06</v>
+        <v>4.823959683962862e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH4" t="n">
-        <v>200484.1886224967</v>
+        <v>243225.0236197652</v>
       </c>
     </row>
     <row r="5">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.0525067595692</v>
+        <v>189.1340048824145</v>
       </c>
       <c r="AB5" t="n">
-        <v>199.8354831302007</v>
+        <v>258.7814894834061</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.7634650911731</v>
+        <v>234.0837473292869</v>
       </c>
       <c r="AD5" t="n">
-        <v>146052.5067595692</v>
+        <v>189134.0048824145</v>
       </c>
       <c r="AE5" t="n">
-        <v>199835.4831302007</v>
+        <v>258781.4894834061</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.529656217361701e-06</v>
+        <v>5.088579762996186e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.611111111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>180763.4650911732</v>
+        <v>234083.7473292869</v>
       </c>
     </row>
     <row r="6">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.525361236901</v>
+        <v>174.9735810728139</v>
       </c>
       <c r="AB6" t="n">
-        <v>192.2729987856388</v>
+        <v>239.406572913312</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.9227336384404</v>
+        <v>216.5579456037702</v>
       </c>
       <c r="AD6" t="n">
-        <v>140525.361236901</v>
+        <v>174973.5810728139</v>
       </c>
       <c r="AE6" t="n">
-        <v>192272.9987856388</v>
+        <v>239406.572913312</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.68542577367486e-06</v>
+        <v>5.313147189151505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.246527777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>173922.7336384404</v>
+        <v>216557.9456037702</v>
       </c>
     </row>
     <row r="7">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.3857776699248</v>
+        <v>170.3819349381984</v>
       </c>
       <c r="AB7" t="n">
-        <v>174.2948408717956</v>
+        <v>233.1240801028034</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.6603858833856</v>
+        <v>210.8750450895605</v>
       </c>
       <c r="AD7" t="n">
-        <v>127385.7776699248</v>
+        <v>170381.9349381984</v>
       </c>
       <c r="AE7" t="n">
-        <v>174294.8408717956</v>
+        <v>233124.0801028034</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.815986500915087e-06</v>
+        <v>5.501371943508256e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.962962962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>157660.3858833856</v>
+        <v>210875.0450895605</v>
       </c>
     </row>
     <row r="8">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.0240359420448</v>
+        <v>158.5575071239783</v>
       </c>
       <c r="AB8" t="n">
-        <v>169.6951575301346</v>
+        <v>216.945376310457</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.4996898641551</v>
+        <v>196.2404140801971</v>
       </c>
       <c r="AD8" t="n">
-        <v>124024.0359420448</v>
+        <v>158557.5071239783</v>
       </c>
       <c r="AE8" t="n">
-        <v>169695.1575301346</v>
+        <v>216945.376310457</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.91424841590562e-06</v>
+        <v>5.643032649623092e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.766203703703703</v>
       </c>
       <c r="AH8" t="n">
-        <v>153499.6898641551</v>
+        <v>196240.4140801971</v>
       </c>
     </row>
     <row r="9">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.874314796258</v>
+        <v>154.4077859781915</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.0173259856956</v>
+        <v>211.267544766018</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.3637425934289</v>
+        <v>191.1044668094709</v>
       </c>
       <c r="AD9" t="n">
-        <v>119874.314796258</v>
+        <v>154407.7859781915</v>
       </c>
       <c r="AE9" t="n">
-        <v>164017.3259856956</v>
+        <v>211267.544766018</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.043181072934888e-06</v>
+        <v>5.828910273092851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.517361111111112</v>
       </c>
       <c r="AH9" t="n">
-        <v>148363.7425934289</v>
+        <v>191104.466809471</v>
       </c>
     </row>
     <row r="10">
@@ -8510,28 +8510,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.8161414739556</v>
+        <v>155.3496126558891</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.3059747965814</v>
+        <v>212.5561935769038</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.5294045704341</v>
+        <v>192.2701287864761</v>
       </c>
       <c r="AD10" t="n">
-        <v>120816.1414739556</v>
+        <v>155349.6126558891</v>
       </c>
       <c r="AE10" t="n">
-        <v>165305.9747965813</v>
+        <v>212556.1935769038</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.999013103663354e-06</v>
+        <v>5.765234883545776e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.59837962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>149529.4045704341</v>
+        <v>192270.1287864761</v>
       </c>
     </row>
     <row r="11">
@@ -8616,28 +8616,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>117.0572480108679</v>
+        <v>151.4201269922092</v>
       </c>
       <c r="AB11" t="n">
-        <v>160.1628909297116</v>
+        <v>207.1796979351871</v>
       </c>
       <c r="AC11" t="n">
-        <v>144.8771694094532</v>
+        <v>187.4067583428442</v>
       </c>
       <c r="AD11" t="n">
-        <v>117057.2480108679</v>
+        <v>151420.1269922092</v>
       </c>
       <c r="AE11" t="n">
-        <v>160162.8909297115</v>
+        <v>207179.6979351871</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.108618991736707e-06</v>
+        <v>5.923249791969968e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>144877.1694094532</v>
+        <v>187406.7583428442</v>
       </c>
     </row>
     <row r="12">
@@ -8722,28 +8722,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>117.0632474003315</v>
+        <v>151.4261263816728</v>
       </c>
       <c r="AB12" t="n">
-        <v>160.17109955905</v>
+        <v>207.1879065645255</v>
       </c>
       <c r="AC12" t="n">
-        <v>144.8845946187284</v>
+        <v>187.4141835521194</v>
       </c>
       <c r="AD12" t="n">
-        <v>117063.2474003315</v>
+        <v>151426.1263816728</v>
       </c>
       <c r="AE12" t="n">
-        <v>160171.09955905</v>
+        <v>207187.9065645255</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.103367152346513e-06</v>
+        <v>5.915678402011933e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.407407407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>144884.5946187284</v>
+        <v>187414.1835521194</v>
       </c>
     </row>
   </sheetData>
@@ -9019,28 +9019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.5029657522492</v>
+        <v>468.0507943123555</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.1446061016339</v>
+        <v>640.4077457218816</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.498524396518</v>
+        <v>579.2881292881008</v>
       </c>
       <c r="AD2" t="n">
-        <v>395502.9657522492</v>
+        <v>468050.7943123556</v>
       </c>
       <c r="AE2" t="n">
-        <v>541144.606101634</v>
+        <v>640407.7457218816</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.755714754094037e-06</v>
+        <v>2.461164824618115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>489498.524396518</v>
+        <v>579288.1292881008</v>
       </c>
     </row>
     <row r="3">
@@ -9125,28 +9125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.079489631628</v>
+        <v>351.5543890697743</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.4772639360863</v>
+        <v>481.0122246103074</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.6836443604485</v>
+        <v>435.1050929983962</v>
       </c>
       <c r="AD3" t="n">
-        <v>297079.489631628</v>
+        <v>351554.3890697743</v>
       </c>
       <c r="AE3" t="n">
-        <v>406477.2639360863</v>
+        <v>481012.2246103074</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.155149565211286e-06</v>
+        <v>3.021093426093603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>367683.6443604485</v>
+        <v>435105.0929983963</v>
       </c>
     </row>
     <row r="4">
@@ -9231,28 +9231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.9172943047754</v>
+        <v>301.3921042343737</v>
       </c>
       <c r="AB4" t="n">
-        <v>337.8431352898552</v>
+        <v>412.3779734946914</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.5998606237104</v>
+        <v>373.0211984804781</v>
       </c>
       <c r="AD4" t="n">
-        <v>246917.2943047754</v>
+        <v>301392.1042343737</v>
       </c>
       <c r="AE4" t="n">
-        <v>337843.1352898552</v>
+        <v>412377.9734946914</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.442158881453856e-06</v>
+        <v>3.42342372025258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.64351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>305599.8606237104</v>
+        <v>373021.1984804781</v>
       </c>
     </row>
     <row r="5">
@@ -9337,28 +9337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.940259571712</v>
+        <v>274.3297286467382</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.93196622532</v>
+        <v>375.3500373079395</v>
       </c>
       <c r="AC5" t="n">
-        <v>272.2114417295315</v>
+        <v>339.527156554355</v>
       </c>
       <c r="AD5" t="n">
-        <v>219940.259571712</v>
+        <v>274329.7286467382</v>
       </c>
       <c r="AE5" t="n">
-        <v>300931.9662253199</v>
+        <v>375350.0373079395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.656396275533227e-06</v>
+        <v>3.723742173006071e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.70601851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>272211.4417295315</v>
+        <v>339527.1565543551</v>
       </c>
     </row>
     <row r="6">
@@ -9443,28 +9443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.8618880862534</v>
+        <v>253.1723116815615</v>
       </c>
       <c r="AB6" t="n">
-        <v>284.4058054987812</v>
+        <v>346.4015260166605</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.2625145881161</v>
+        <v>313.341450551329</v>
       </c>
       <c r="AD6" t="n">
-        <v>207861.8880862534</v>
+        <v>253172.3116815615</v>
       </c>
       <c r="AE6" t="n">
-        <v>284405.8054987812</v>
+        <v>346401.5260166605</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.829849945510332e-06</v>
+        <v>3.966889911129884e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.0462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>257262.5145881161</v>
+        <v>313341.4505513291</v>
       </c>
     </row>
     <row r="7">
@@ -9549,28 +9549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.6978687848448</v>
+        <v>236.0935437261735</v>
       </c>
       <c r="AB7" t="n">
-        <v>260.9212370675162</v>
+        <v>323.0336022380449</v>
       </c>
       <c r="AC7" t="n">
-        <v>236.0192804071249</v>
+        <v>292.20372862105</v>
       </c>
       <c r="AD7" t="n">
-        <v>190697.8687848448</v>
+        <v>236093.5437261735</v>
       </c>
       <c r="AE7" t="n">
-        <v>260921.2370675163</v>
+        <v>323033.6022380448</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.962126795249247e-06</v>
+        <v>4.152315891591443e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.600694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>236019.2804071248</v>
+        <v>292203.72862105</v>
       </c>
     </row>
     <row r="8">
@@ -9655,28 +9655,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>183.4315426457371</v>
+        <v>219.7481721073511</v>
       </c>
       <c r="AB8" t="n">
-        <v>250.9791290763094</v>
+        <v>300.6691436822807</v>
       </c>
       <c r="AC8" t="n">
-        <v>227.0260332487595</v>
+        <v>271.9737026011261</v>
       </c>
       <c r="AD8" t="n">
-        <v>183431.5426457371</v>
+        <v>219748.1721073511</v>
       </c>
       <c r="AE8" t="n">
-        <v>250979.1290763094</v>
+        <v>300669.1436822807</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.094551056039132e-06</v>
+        <v>4.337948513190217e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.189814814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>227026.0332487595</v>
+        <v>271973.7026011262</v>
       </c>
     </row>
     <row r="9">
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>170.3258612831996</v>
+        <v>215.6361953699567</v>
       </c>
       <c r="AB9" t="n">
-        <v>233.0473576542389</v>
+        <v>295.0429557025699</v>
       </c>
       <c r="AC9" t="n">
-        <v>210.8056449238063</v>
+        <v>266.8844701057927</v>
       </c>
       <c r="AD9" t="n">
-        <v>170325.8612831996</v>
+        <v>215636.1953699567</v>
       </c>
       <c r="AE9" t="n">
-        <v>233047.3576542388</v>
+        <v>295042.9557025699</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.174300434615009e-06</v>
+        <v>4.449741368423913e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>210805.6449238063</v>
+        <v>266884.4701057927</v>
       </c>
     </row>
     <row r="10">
@@ -9867,28 +9867,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>165.9044619795476</v>
+        <v>211.2147960663047</v>
       </c>
       <c r="AB10" t="n">
-        <v>226.9978040686146</v>
+        <v>288.9934021169456</v>
       </c>
       <c r="AC10" t="n">
-        <v>205.3334522417903</v>
+        <v>261.4122774237766</v>
       </c>
       <c r="AD10" t="n">
-        <v>165904.4619795476</v>
+        <v>211214.7960663047</v>
       </c>
       <c r="AE10" t="n">
-        <v>226997.8040686146</v>
+        <v>288993.4021169456</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.265203916047769e-06</v>
+        <v>4.577170069706932e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.709490740740742</v>
       </c>
       <c r="AH10" t="n">
-        <v>205333.4522417903</v>
+        <v>261412.2774237767</v>
       </c>
     </row>
     <row r="11">
@@ -9973,28 +9973,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>162.4745686311626</v>
+        <v>198.8764494387971</v>
       </c>
       <c r="AB11" t="n">
-        <v>222.3048726731413</v>
+        <v>272.1115319317618</v>
       </c>
       <c r="AC11" t="n">
-        <v>201.0884076321289</v>
+        <v>246.1415892352079</v>
       </c>
       <c r="AD11" t="n">
-        <v>162474.5686311625</v>
+        <v>198876.4494387971</v>
       </c>
       <c r="AE11" t="n">
-        <v>222304.8726731413</v>
+        <v>272111.5319317618</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.340678374145456e-06</v>
+        <v>4.682970331961372e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.512731481481483</v>
       </c>
       <c r="AH11" t="n">
-        <v>201088.4076321289</v>
+        <v>246141.5892352079</v>
       </c>
     </row>
     <row r="12">
@@ -10079,28 +10079,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>159.7629888359737</v>
+        <v>195.9942774430161</v>
       </c>
       <c r="AB12" t="n">
-        <v>218.5947695709081</v>
+        <v>268.1680170546817</v>
       </c>
       <c r="AC12" t="n">
-        <v>197.7323915628092</v>
+        <v>242.5744378832372</v>
       </c>
       <c r="AD12" t="n">
-        <v>159762.9888359737</v>
+        <v>195994.2774430161</v>
       </c>
       <c r="AE12" t="n">
-        <v>218594.769570908</v>
+        <v>268168.0170546817</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.40008502768719e-06</v>
+        <v>4.766246710259301e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.362268518518517</v>
       </c>
       <c r="AH12" t="n">
-        <v>197732.3915628092</v>
+        <v>242574.4378832371</v>
       </c>
     </row>
     <row r="13">
@@ -10185,28 +10185,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>156.860984317727</v>
+        <v>193.0922729247694</v>
       </c>
       <c r="AB13" t="n">
-        <v>214.6241189616412</v>
+        <v>264.1973664454148</v>
       </c>
       <c r="AC13" t="n">
-        <v>194.1406942748465</v>
+        <v>238.9827405952744</v>
       </c>
       <c r="AD13" t="n">
-        <v>156860.984317727</v>
+        <v>193092.2729247694</v>
       </c>
       <c r="AE13" t="n">
-        <v>214624.1189616412</v>
+        <v>264197.3664454148</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.466272589573637e-06</v>
+        <v>4.859028580869153e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.206018518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>194140.6942748465</v>
+        <v>238982.7405952744</v>
       </c>
     </row>
     <row r="14">
@@ -10291,28 +10291,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>153.4343374823055</v>
+        <v>189.6656260893479</v>
       </c>
       <c r="AB14" t="n">
-        <v>209.9356295884308</v>
+        <v>259.5088770722044</v>
       </c>
       <c r="AC14" t="n">
-        <v>189.8996677470776</v>
+        <v>234.7417140675055</v>
       </c>
       <c r="AD14" t="n">
-        <v>153434.3374823055</v>
+        <v>189665.6260893479</v>
       </c>
       <c r="AE14" t="n">
-        <v>209935.6295884308</v>
+        <v>259508.8770722044</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.534671317224666e-06</v>
+        <v>4.954910068537239e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH14" t="n">
-        <v>189899.6677470776</v>
+        <v>234741.7140675055</v>
       </c>
     </row>
     <row r="15">
@@ -10397,28 +10397,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>154.0695892661979</v>
+        <v>190.3008778732403</v>
       </c>
       <c r="AB15" t="n">
-        <v>210.8048091044827</v>
+        <v>260.3780565882564</v>
       </c>
       <c r="AC15" t="n">
-        <v>190.6858939900189</v>
+        <v>235.5279403104468</v>
       </c>
       <c r="AD15" t="n">
-        <v>154069.5892661979</v>
+        <v>190300.8778732403</v>
       </c>
       <c r="AE15" t="n">
-        <v>210804.8091044827</v>
+        <v>260378.0565882564</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.529610204474625e-06</v>
+        <v>4.947815389492834e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>190685.8939900189</v>
+        <v>235527.9403104468</v>
       </c>
     </row>
     <row r="16">
@@ -10503,28 +10503,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>153.1248509880157</v>
+        <v>189.356139595058</v>
       </c>
       <c r="AB16" t="n">
-        <v>209.5121765133632</v>
+        <v>259.0854239971368</v>
       </c>
       <c r="AC16" t="n">
-        <v>189.5166284391741</v>
+        <v>234.3586747596021</v>
       </c>
       <c r="AD16" t="n">
-        <v>153124.8509880157</v>
+        <v>189356.139595058</v>
       </c>
       <c r="AE16" t="n">
-        <v>209512.1765133632</v>
+        <v>259085.4239971368</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.54646420130243e-06</v>
+        <v>4.971441359514496e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>189516.6284391741</v>
+        <v>234358.6747596021</v>
       </c>
     </row>
     <row r="17">
@@ -10609,28 +10609,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>141.6513193651953</v>
+        <v>177.9678593182583</v>
       </c>
       <c r="AB17" t="n">
-        <v>193.8135843705371</v>
+        <v>243.5034765069601</v>
       </c>
       <c r="AC17" t="n">
-        <v>175.316287897342</v>
+        <v>220.2638464684821</v>
       </c>
       <c r="AD17" t="n">
-        <v>141651.3193651953</v>
+        <v>177967.8593182583</v>
       </c>
       <c r="AE17" t="n">
-        <v>193813.5843705371</v>
+        <v>243503.4765069601</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.597271876870794e-06</v>
+        <v>5.042663671474842e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.905092592592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>175316.287897342</v>
+        <v>220263.8464684821</v>
       </c>
     </row>
     <row r="18">
@@ -10715,28 +10715,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>139.361822775097</v>
+        <v>175.6783627281599</v>
       </c>
       <c r="AB18" t="n">
-        <v>190.6809941305052</v>
+        <v>240.3708862669281</v>
       </c>
       <c r="AC18" t="n">
-        <v>172.4826676731997</v>
+        <v>217.4302262443398</v>
       </c>
       <c r="AD18" t="n">
-        <v>139361.822775097</v>
+        <v>175678.3627281599</v>
       </c>
       <c r="AE18" t="n">
-        <v>190680.9941305052</v>
+        <v>240370.8862669281</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.650683814339664e-06</v>
+        <v>5.117536643525999e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.789351851851852</v>
       </c>
       <c r="AH18" t="n">
-        <v>172482.6676731997</v>
+        <v>217430.2262443398</v>
       </c>
     </row>
     <row r="19">
@@ -10821,28 +10821,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>138.2218640465535</v>
+        <v>174.5384039996166</v>
       </c>
       <c r="AB19" t="n">
-        <v>189.1212523066832</v>
+        <v>238.8111444431061</v>
       </c>
       <c r="AC19" t="n">
-        <v>171.0717854199314</v>
+        <v>216.0193439910715</v>
       </c>
       <c r="AD19" t="n">
-        <v>138221.8640465536</v>
+        <v>174538.4039996166</v>
       </c>
       <c r="AE19" t="n">
-        <v>189121.2523066832</v>
+        <v>238811.1444431061</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.670584306220891e-06</v>
+        <v>5.14543319705012e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.748842592592593</v>
       </c>
       <c r="AH19" t="n">
-        <v>171071.7854199314</v>
+        <v>216019.3439910715</v>
       </c>
     </row>
     <row r="20">
@@ -10927,28 +10927,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>136.8164355040094</v>
+        <v>173.1329754570724</v>
       </c>
       <c r="AB20" t="n">
-        <v>187.1982829716439</v>
+        <v>236.8881751080668</v>
       </c>
       <c r="AC20" t="n">
-        <v>169.3323415793232</v>
+        <v>214.2799001504633</v>
       </c>
       <c r="AD20" t="n">
-        <v>136816.4355040094</v>
+        <v>173132.9754570724</v>
       </c>
       <c r="AE20" t="n">
-        <v>187198.282971644</v>
+        <v>236888.1751080668</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.696676062242942e-06</v>
+        <v>5.1820086783373e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH20" t="n">
-        <v>169332.3415793232</v>
+        <v>214279.9001504633</v>
       </c>
     </row>
     <row r="21">
@@ -11033,28 +11033,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>135.3125854026214</v>
+        <v>171.6291253556843</v>
       </c>
       <c r="AB21" t="n">
-        <v>185.1406489177418</v>
+        <v>234.8305410541647</v>
       </c>
       <c r="AC21" t="n">
-        <v>167.4710852316173</v>
+        <v>212.4186438027574</v>
       </c>
       <c r="AD21" t="n">
-        <v>135312.5854026214</v>
+        <v>171629.1253556843</v>
       </c>
       <c r="AE21" t="n">
-        <v>185140.6489177418</v>
+        <v>234830.5410541647</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.722964366332957e-06</v>
+        <v>5.218859681140766e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>167471.0852316173</v>
+        <v>212418.6438027574</v>
       </c>
     </row>
     <row r="22">
@@ -11139,28 +11139,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>134.0550438043952</v>
+        <v>170.3715837574582</v>
       </c>
       <c r="AB22" t="n">
-        <v>183.4200250242298</v>
+        <v>233.1099171606526</v>
       </c>
       <c r="AC22" t="n">
-        <v>165.9146752675907</v>
+        <v>210.8622338387308</v>
       </c>
       <c r="AD22" t="n">
-        <v>134055.0438043952</v>
+        <v>170371.5837574582</v>
       </c>
       <c r="AE22" t="n">
-        <v>183420.0250242298</v>
+        <v>233109.9171606526</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.745419983097698e-06</v>
+        <v>5.250338014376625e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.592592592592593</v>
       </c>
       <c r="AH22" t="n">
-        <v>165914.6752675907</v>
+        <v>210862.2338387308</v>
       </c>
     </row>
     <row r="23">
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>133.172681394927</v>
+        <v>169.4892213479899</v>
       </c>
       <c r="AB23" t="n">
-        <v>182.2127378485138</v>
+        <v>231.9026299849367</v>
       </c>
       <c r="AC23" t="n">
-        <v>164.8226098854865</v>
+        <v>209.7701684566266</v>
       </c>
       <c r="AD23" t="n">
-        <v>133172.681394927</v>
+        <v>169489.2213479899</v>
       </c>
       <c r="AE23" t="n">
-        <v>182212.7378485138</v>
+        <v>231902.6299849367</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.764878241826008e-06</v>
+        <v>5.277614644489098e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7.552083333333335</v>
       </c>
       <c r="AH23" t="n">
-        <v>164822.6098854865</v>
+        <v>209770.1684566266</v>
       </c>
     </row>
     <row r="24">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>132.9306521886612</v>
+        <v>169.2471921417242</v>
       </c>
       <c r="AB24" t="n">
-        <v>181.8815828109262</v>
+        <v>231.5714749473491</v>
       </c>
       <c r="AC24" t="n">
-        <v>164.5230598199071</v>
+        <v>209.4706183910472</v>
       </c>
       <c r="AD24" t="n">
-        <v>132930.6521886612</v>
+        <v>169247.1921417242</v>
       </c>
       <c r="AE24" t="n">
-        <v>181881.5828109262</v>
+        <v>231571.4749473491</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.763993775520176e-06</v>
+        <v>5.276374797665804e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>7.552083333333335</v>
       </c>
       <c r="AH24" t="n">
-        <v>164523.0598199071</v>
+        <v>209470.6183910472</v>
       </c>
     </row>
     <row r="25">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>132.9526765014464</v>
+        <v>169.2692164545093</v>
       </c>
       <c r="AB25" t="n">
-        <v>181.9117174473229</v>
+        <v>231.6016095837458</v>
       </c>
       <c r="AC25" t="n">
-        <v>164.5503184489004</v>
+        <v>209.4978770200405</v>
       </c>
       <c r="AD25" t="n">
-        <v>132952.6765014464</v>
+        <v>169269.2164545094</v>
       </c>
       <c r="AE25" t="n">
-        <v>181911.7174473229</v>
+        <v>231601.6095837458</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.762568802027446e-06</v>
+        <v>5.27437726667272e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>7.557870370370371</v>
       </c>
       <c r="AH25" t="n">
-        <v>164550.3184489004</v>
+        <v>209497.8770200405</v>
       </c>
     </row>
     <row r="26">
@@ -11563,28 +11563,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>133.0243322482582</v>
+        <v>169.3408722013212</v>
       </c>
       <c r="AB26" t="n">
-        <v>182.0097600013392</v>
+        <v>231.6996521377621</v>
       </c>
       <c r="AC26" t="n">
-        <v>164.639003959165</v>
+        <v>209.5865625303051</v>
       </c>
       <c r="AD26" t="n">
-        <v>133024.3322482582</v>
+        <v>169340.8722013212</v>
       </c>
       <c r="AE26" t="n">
-        <v>182009.7600013392</v>
+        <v>231699.6521377621</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.762224842908511e-06</v>
+        <v>5.273895104019215e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>7.557870370370371</v>
       </c>
       <c r="AH26" t="n">
-        <v>164639.003959165</v>
+        <v>209586.5625303051</v>
       </c>
     </row>
   </sheetData>
@@ -11860,28 +11860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.1406742539084</v>
+        <v>158.7190836137645</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.4865030972598</v>
+        <v>217.166452392034</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.4063877139963</v>
+        <v>196.4403909708307</v>
       </c>
       <c r="AD2" t="n">
-        <v>123140.6742539084</v>
+        <v>158719.0836137645</v>
       </c>
       <c r="AE2" t="n">
-        <v>168486.5030972598</v>
+        <v>217166.4523920341</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.595948459177374e-06</v>
+        <v>5.994231838285127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.03587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>152406.3877139963</v>
+        <v>196440.3909708307</v>
       </c>
     </row>
   </sheetData>
@@ -12157,28 +12157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3555319291397</v>
+        <v>134.1256958324027</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.047354392763</v>
+        <v>183.5166942458972</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.6814314472518</v>
+        <v>166.0021185144183</v>
       </c>
       <c r="AD2" t="n">
-        <v>102355.5319291397</v>
+        <v>134125.6958324027</v>
       </c>
       <c r="AE2" t="n">
-        <v>140047.354392763</v>
+        <v>183516.6942458971</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.392808855302775e-06</v>
+        <v>6.68544488484364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.743055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>126681.4314472518</v>
+        <v>166002.1185144183</v>
       </c>
     </row>
     <row r="3">
@@ -12263,28 +12263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.4424502521784</v>
+        <v>132.2126141554414</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.4297916431389</v>
+        <v>180.899131496273</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.3136852126786</v>
+        <v>163.6343722798451</v>
       </c>
       <c r="AD3" t="n">
-        <v>100442.4502521784</v>
+        <v>132212.6141554414</v>
       </c>
       <c r="AE3" t="n">
-        <v>137429.7916431389</v>
+        <v>180899.131496273</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485811325881967e-06</v>
+        <v>6.826985960654603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.586805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>124313.6852126786</v>
+        <v>163634.3722798451</v>
       </c>
     </row>
   </sheetData>
@@ -12560,28 +12560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.5380176338433</v>
+        <v>274.6373957365558</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.4863334109236</v>
+        <v>375.7710009935419</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.426585099528</v>
+        <v>339.9079440566297</v>
       </c>
       <c r="AD2" t="n">
-        <v>222538.0176338434</v>
+        <v>274637.3957365558</v>
       </c>
       <c r="AE2" t="n">
-        <v>304486.3334109236</v>
+        <v>375771.0009935419</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.606851503049979e-06</v>
+        <v>3.74556858506268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.56828703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>275426.585099528</v>
+        <v>339907.9440566297</v>
       </c>
     </row>
     <row r="3">
@@ -12666,28 +12666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.0774742138423</v>
+        <v>232.4083712867458</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.7041417287086</v>
+        <v>317.9913867280887</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.0137815357394</v>
+        <v>287.6427350825686</v>
       </c>
       <c r="AD3" t="n">
-        <v>189077.4742138423</v>
+        <v>232408.3712867459</v>
       </c>
       <c r="AE3" t="n">
-        <v>258704.1417287086</v>
+        <v>317991.3867280887</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.981574354505013e-06</v>
+        <v>4.283976752491072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.11574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>234013.7815357394</v>
+        <v>287642.7350825686</v>
       </c>
     </row>
     <row r="4">
@@ -12772,28 +12772,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.2912077723302</v>
+        <v>210.5367639906621</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.8952108412053</v>
+        <v>288.0656887183878</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.0497731750327</v>
+        <v>260.573103689923</v>
       </c>
       <c r="AD4" t="n">
-        <v>167291.2077723301</v>
+        <v>210536.7639906621</v>
       </c>
       <c r="AE4" t="n">
-        <v>228895.2108412053</v>
+        <v>288065.6887183878</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.245235398386935e-06</v>
+        <v>4.662809425511966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.293981481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>207049.7731750327</v>
+        <v>260573.103689923</v>
       </c>
     </row>
     <row r="5">
@@ -12878,28 +12878,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.3311131106997</v>
+        <v>193.6619206750523</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.6896610986048</v>
+        <v>264.9767836284366</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.058928530665</v>
+        <v>239.6877712962676</v>
       </c>
       <c r="AD5" t="n">
-        <v>150331.1131106997</v>
+        <v>193661.9206750523</v>
       </c>
       <c r="AE5" t="n">
-        <v>205689.6610986048</v>
+        <v>264976.7836284366</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.44192580748169e-06</v>
+        <v>4.945417551224725e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.761574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>186058.928530665</v>
+        <v>239687.7712962676</v>
       </c>
     </row>
     <row r="6">
@@ -12984,28 +12984,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>144.7144510416033</v>
+        <v>179.362118430722</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.0046962660286</v>
+        <v>245.4111633350028</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.1074059557915</v>
+        <v>221.9894663431124</v>
       </c>
       <c r="AD6" t="n">
-        <v>144714.4510416033</v>
+        <v>179362.118430722</v>
       </c>
       <c r="AE6" t="n">
-        <v>198004.6962660286</v>
+        <v>245411.1633350028</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.590720486327883e-06</v>
+        <v>5.159208276956027e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.39699074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>179107.4059557915</v>
+        <v>221989.4663431124</v>
       </c>
     </row>
     <row r="7">
@@ -13090,28 +13090,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>140.1460876552912</v>
+        <v>174.79375504441</v>
       </c>
       <c r="AB7" t="n">
-        <v>191.7540599389111</v>
+        <v>239.1605270078854</v>
       </c>
       <c r="AC7" t="n">
-        <v>173.453321586909</v>
+        <v>216.3353819742298</v>
       </c>
       <c r="AD7" t="n">
-        <v>140146.0876552913</v>
+        <v>174793.75504441</v>
       </c>
       <c r="AE7" t="n">
-        <v>191754.0599389111</v>
+        <v>239160.5270078854</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.717625930457648e-06</v>
+        <v>5.341548177886226e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.113425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>173453.321586909</v>
+        <v>216335.3819742298</v>
       </c>
     </row>
     <row r="8">
@@ -13196,28 +13196,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>127.9588348824232</v>
+        <v>162.6917536175626</v>
       </c>
       <c r="AB8" t="n">
-        <v>175.0789230314355</v>
+        <v>222.602034753059</v>
       </c>
       <c r="AC8" t="n">
-        <v>158.3696363421759</v>
+        <v>201.357208980209</v>
       </c>
       <c r="AD8" t="n">
-        <v>127958.8348824232</v>
+        <v>162691.7536175626</v>
       </c>
       <c r="AE8" t="n">
-        <v>175078.9230314355</v>
+        <v>222602.034753059</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.815449962749872e-06</v>
+        <v>5.482103411580674e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.905092592592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>158369.6363421759</v>
+        <v>201357.208980209</v>
       </c>
     </row>
     <row r="9">
@@ -13302,28 +13302,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>124.3836189545716</v>
+        <v>159.116537689711</v>
       </c>
       <c r="AB9" t="n">
-        <v>170.1871548715565</v>
+        <v>217.71026659318</v>
       </c>
       <c r="AC9" t="n">
-        <v>153.9447316698345</v>
+        <v>196.9323043078676</v>
       </c>
       <c r="AD9" t="n">
-        <v>124383.6189545716</v>
+        <v>159116.537689711</v>
       </c>
       <c r="AE9" t="n">
-        <v>170187.1548715565</v>
+        <v>217710.26659318</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.923019916213459e-06</v>
+        <v>5.636661750603234e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.685185185185184</v>
       </c>
       <c r="AH9" t="n">
-        <v>153944.7316698345</v>
+        <v>196932.3043078676</v>
       </c>
     </row>
     <row r="10">
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.790091111376</v>
+        <v>155.5230098465154</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.2703315412392</v>
+        <v>212.7934432628627</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.4971630573562</v>
+        <v>192.4847356953893</v>
       </c>
       <c r="AD10" t="n">
-        <v>120790.091111376</v>
+        <v>155523.0098465154</v>
       </c>
       <c r="AE10" t="n">
-        <v>165270.3315412392</v>
+        <v>212793.4432628627</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.022407465271144e-06</v>
+        <v>5.779463471783476e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.500000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>149497.1630573562</v>
+        <v>192484.7356953893</v>
       </c>
     </row>
     <row r="11">
@@ -13514,28 +13514,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>120.5260807325327</v>
+        <v>155.0884072670798</v>
       </c>
       <c r="AB11" t="n">
-        <v>164.90910089359</v>
+        <v>212.1988008403667</v>
       </c>
       <c r="AC11" t="n">
-        <v>149.1704077557281</v>
+        <v>191.9468451111102</v>
       </c>
       <c r="AD11" t="n">
-        <v>120526.0807325327</v>
+        <v>155088.4072670798</v>
       </c>
       <c r="AE11" t="n">
-        <v>164909.10089359</v>
+        <v>212198.8008403667</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.023554044232481e-06</v>
+        <v>5.781110895939724e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.494212962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>149170.4077557281</v>
+        <v>191946.8451111102</v>
       </c>
     </row>
     <row r="12">
@@ -13620,28 +13620,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.6463183633072</v>
+        <v>153.2086448978543</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.3371270907541</v>
+        <v>209.6268270375307</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.8438995228461</v>
+        <v>189.6203368782282</v>
       </c>
       <c r="AD12" t="n">
-        <v>118646.3183633072</v>
+        <v>153208.6448978543</v>
       </c>
       <c r="AE12" t="n">
-        <v>162337.127090754</v>
+        <v>209626.8270375307</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.072544236216866e-06</v>
+        <v>5.851500837161238e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.407407407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>146843.8995228461</v>
+        <v>189620.3368782282</v>
       </c>
     </row>
     <row r="13">
@@ -13726,28 +13726,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>118.7197331860299</v>
+        <v>153.2820597205771</v>
       </c>
       <c r="AB13" t="n">
-        <v>162.4375764900367</v>
+        <v>209.7272764368134</v>
       </c>
       <c r="AC13" t="n">
-        <v>146.9347621724429</v>
+        <v>189.7111995278249</v>
       </c>
       <c r="AD13" t="n">
-        <v>118719.7331860299</v>
+        <v>153282.0597205771</v>
       </c>
       <c r="AE13" t="n">
-        <v>162437.5764900367</v>
+        <v>209727.2764368134</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.06373642510478e-06</v>
+        <v>5.838845624324604e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH13" t="n">
-        <v>146934.7621724429</v>
+        <v>189711.1995278249</v>
       </c>
     </row>
   </sheetData>
@@ -14023,28 +14023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.2165864616435</v>
+        <v>160.9668119283394</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.4315901133216</v>
+        <v>220.2418934348085</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.6886453727383</v>
+        <v>199.2223162368925</v>
       </c>
       <c r="AD2" t="n">
-        <v>128216.5864616435</v>
+        <v>160966.8119283394</v>
       </c>
       <c r="AE2" t="n">
-        <v>175431.5901133216</v>
+        <v>220241.8934348085</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.832170068814467e-06</v>
+        <v>5.721087677041659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.547453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>158688.6453727382</v>
+        <v>199222.3162368925</v>
       </c>
     </row>
     <row r="3">
@@ -14129,28 +14129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.6527705770626</v>
+        <v>144.3176551891869</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.7682464760659</v>
+        <v>197.4617826753552</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.1882594440124</v>
+        <v>178.6163072762278</v>
       </c>
       <c r="AD3" t="n">
-        <v>111652.7705770626</v>
+        <v>144317.6551891869</v>
       </c>
       <c r="AE3" t="n">
-        <v>152768.2464760659</v>
+        <v>197461.7826753551</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137924104080703e-06</v>
+        <v>6.177551146030804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>138188.2594440124</v>
+        <v>178616.3072762278</v>
       </c>
     </row>
     <row r="4">
@@ -14235,28 +14235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.2767101853029</v>
+        <v>138.9415947974272</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.4124834730185</v>
+        <v>190.1060196723078</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.5345201380954</v>
+        <v>171.9625679703107</v>
       </c>
       <c r="AD4" t="n">
-        <v>106276.7101853029</v>
+        <v>138941.5947974272</v>
       </c>
       <c r="AE4" t="n">
-        <v>145412.4834730185</v>
+        <v>190106.0196723078</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.348589879582541e-06</v>
+        <v>6.4920563351418e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.534722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>131534.5201380954</v>
+        <v>171962.5679703107</v>
       </c>
     </row>
     <row r="5">
@@ -14341,28 +14341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.1559694220677</v>
+        <v>137.6502618335998</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.879036517168</v>
+        <v>188.3391609416104</v>
       </c>
       <c r="AC5" t="n">
-        <v>130.1474232075044</v>
+        <v>170.3643357570688</v>
       </c>
       <c r="AD5" t="n">
-        <v>105155.9694220677</v>
+        <v>137650.2618335999</v>
       </c>
       <c r="AE5" t="n">
-        <v>143879.036517168</v>
+        <v>188339.1609416104</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.39443600482609e-06</v>
+        <v>6.560500505797337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.453703703703705</v>
       </c>
       <c r="AH5" t="n">
-        <v>130147.4232075044</v>
+        <v>170364.3357570688</v>
       </c>
     </row>
     <row r="6">
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.2140764634856</v>
+        <v>137.7083688750177</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.9585411347377</v>
+        <v>188.4186655591801</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.2193400159587</v>
+        <v>170.436252565523</v>
       </c>
       <c r="AD6" t="n">
-        <v>105214.0764634856</v>
+        <v>137708.3688750177</v>
       </c>
       <c r="AE6" t="n">
-        <v>143958.5411347377</v>
+        <v>188418.6655591801</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.393473802197521e-06</v>
+        <v>6.559064023203331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.453703703703705</v>
       </c>
       <c r="AH6" t="n">
-        <v>130219.3400159587</v>
+        <v>170436.252565523</v>
       </c>
     </row>
   </sheetData>
@@ -14744,28 +14744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.7312689881072</v>
+        <v>385.3394335252249</v>
       </c>
       <c r="AB2" t="n">
-        <v>441.5751601282565</v>
+        <v>527.2384129252226</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.4318466002446</v>
+        <v>476.9195187793987</v>
       </c>
       <c r="AD2" t="n">
-        <v>322731.2689881072</v>
+        <v>385339.4335252249</v>
       </c>
       <c r="AE2" t="n">
-        <v>441575.1601282565</v>
+        <v>527238.4129252227</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.01636807834385e-06</v>
+        <v>2.847229533321801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.35763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>399431.8466002446</v>
+        <v>476919.5187793988</v>
       </c>
     </row>
     <row r="3">
@@ -14850,28 +14850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.7875459044957</v>
+        <v>309.4395081725969</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.9798048564684</v>
+        <v>423.3887865893736</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.5782234808128</v>
+        <v>382.9811550271771</v>
       </c>
       <c r="AD3" t="n">
-        <v>255787.5459044958</v>
+        <v>309439.5081725969</v>
       </c>
       <c r="AE3" t="n">
-        <v>349979.8048564685</v>
+        <v>423388.7865893736</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406364990512174e-06</v>
+        <v>3.397927958949527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>316578.2234808127</v>
+        <v>382981.1550271771</v>
       </c>
     </row>
     <row r="4">
@@ -14956,28 +14956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.661739920165</v>
+        <v>267.3136126797145</v>
       </c>
       <c r="AB4" t="n">
-        <v>292.3414186493394</v>
+        <v>365.7502779126665</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.4407639572907</v>
+        <v>330.84358472242</v>
       </c>
       <c r="AD4" t="n">
-        <v>213661.739920165</v>
+        <v>267313.6126797145</v>
       </c>
       <c r="AE4" t="n">
-        <v>292341.4186493394</v>
+        <v>365750.2779126666</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692809618407996e-06</v>
+        <v>3.80240450912197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.75231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>264440.7639572907</v>
+        <v>330843.58472242</v>
       </c>
     </row>
     <row r="5">
@@ -15062,28 +15062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.4387425361861</v>
+        <v>245.1345025352637</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.2491302711153</v>
+        <v>335.4038409395885</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.0751781891923</v>
+        <v>303.3933691026613</v>
       </c>
       <c r="AD5" t="n">
-        <v>200438.7425361861</v>
+        <v>245134.5025352637</v>
       </c>
       <c r="AE5" t="n">
-        <v>274249.1302711153</v>
+        <v>335403.8409395885</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.894161282271196e-06</v>
+        <v>4.086724822507244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>248075.1781891923</v>
+        <v>303393.3691026613</v>
       </c>
     </row>
     <row r="6">
@@ -15168,28 +15168,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>181.8088586227864</v>
+        <v>226.4192777672923</v>
       </c>
       <c r="AB6" t="n">
-        <v>248.7589012083427</v>
+        <v>309.7968447546181</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.0177008124014</v>
+        <v>280.2302686939316</v>
       </c>
       <c r="AD6" t="n">
-        <v>181808.8586227864</v>
+        <v>226419.2777672923</v>
       </c>
       <c r="AE6" t="n">
-        <v>248758.9012083427</v>
+        <v>309796.8447546181</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.066698397467264e-06</v>
+        <v>4.330357309678873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.438657407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>225017.7008124014</v>
+        <v>280230.2686939316</v>
       </c>
     </row>
     <row r="7">
@@ -15274,28 +15274,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.6241093100024</v>
+        <v>211.4490078946319</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.296654346713</v>
+        <v>289.3138610731593</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.3630789144049</v>
+        <v>261.7021522269764</v>
       </c>
       <c r="AD7" t="n">
-        <v>175624.1093100024</v>
+        <v>211449.0078946319</v>
       </c>
       <c r="AE7" t="n">
-        <v>240296.654346713</v>
+        <v>289313.8610731593</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.190660987045652e-06</v>
+        <v>4.505399728702156e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.074074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>217363.0789144049</v>
+        <v>261702.1522269764</v>
       </c>
     </row>
     <row r="8">
@@ -15380,28 +15380,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>161.1775002324897</v>
+        <v>205.8731707230162</v>
       </c>
       <c r="AB8" t="n">
-        <v>220.5301664674588</v>
+        <v>281.6847546663835</v>
       </c>
       <c r="AC8" t="n">
-        <v>199.4830768959004</v>
+        <v>254.8011570281428</v>
       </c>
       <c r="AD8" t="n">
-        <v>161177.5002324897</v>
+        <v>205873.1707230162</v>
       </c>
       <c r="AE8" t="n">
-        <v>220530.1664674588</v>
+        <v>281684.7546663835</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.309771126588081e-06</v>
+        <v>4.67359020476932e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.744212962962964</v>
       </c>
       <c r="AH8" t="n">
-        <v>199483.0768959004</v>
+        <v>254801.1570281428</v>
       </c>
     </row>
     <row r="9">
@@ -15486,28 +15486,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>157.1397233275227</v>
+        <v>193.0498732581729</v>
       </c>
       <c r="AB9" t="n">
-        <v>215.0055019719409</v>
+        <v>264.1393533510364</v>
       </c>
       <c r="AC9" t="n">
-        <v>194.4856786259176</v>
+        <v>238.9302641892014</v>
       </c>
       <c r="AD9" t="n">
-        <v>157139.7233275227</v>
+        <v>193049.8732581729</v>
       </c>
       <c r="AE9" t="n">
-        <v>215005.5019719409</v>
+        <v>264139.3533510364</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.40101719736733e-06</v>
+        <v>4.802434987779194e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.512731481481483</v>
       </c>
       <c r="AH9" t="n">
-        <v>194485.6786259176</v>
+        <v>238930.2641892014</v>
       </c>
     </row>
     <row r="10">
@@ -15592,28 +15592,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>153.9485942733831</v>
+        <v>189.688152003441</v>
       </c>
       <c r="AB10" t="n">
-        <v>210.6392584173912</v>
+        <v>259.5396980216398</v>
       </c>
       <c r="AC10" t="n">
-        <v>190.5361432281515</v>
+        <v>234.7695935087842</v>
       </c>
       <c r="AD10" t="n">
-        <v>153948.5942733831</v>
+        <v>189688.152003441</v>
       </c>
       <c r="AE10" t="n">
-        <v>210639.2584173912</v>
+        <v>259539.6980216398</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.477005564425268e-06</v>
+        <v>4.909735001700246e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.327546296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>190536.1432281515</v>
+        <v>234769.5935087842</v>
       </c>
     </row>
     <row r="11">
@@ -15698,28 +15698,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>150.6527126455754</v>
+        <v>186.3922703756334</v>
       </c>
       <c r="AB11" t="n">
-        <v>206.1296877701917</v>
+        <v>255.0301273744403</v>
       </c>
       <c r="AC11" t="n">
-        <v>186.4569596742971</v>
+        <v>230.6904099549298</v>
       </c>
       <c r="AD11" t="n">
-        <v>150652.7126455754</v>
+        <v>186392.2703756334</v>
       </c>
       <c r="AE11" t="n">
-        <v>206129.6877701916</v>
+        <v>255030.1273744403</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.558496709874499e-06</v>
+        <v>5.024805260210709e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.136574074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>186456.9596742971</v>
+        <v>230690.4099549298</v>
       </c>
     </row>
     <row r="12">
@@ -15804,28 +15804,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>138.5083361167258</v>
+        <v>183.1186657526807</v>
       </c>
       <c r="AB12" t="n">
-        <v>189.5132160313485</v>
+        <v>250.5510371080756</v>
       </c>
       <c r="AC12" t="n">
-        <v>171.4263406768393</v>
+        <v>226.6387977771429</v>
       </c>
       <c r="AD12" t="n">
-        <v>138508.3361167258</v>
+        <v>183118.6657526807</v>
       </c>
       <c r="AE12" t="n">
-        <v>189513.2160313485</v>
+        <v>250551.0371080756</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.631233435155763e-06</v>
+        <v>5.127513765965288e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.974537037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>171426.3406768393</v>
+        <v>226638.7977771429</v>
       </c>
     </row>
     <row r="13">
@@ -15910,28 +15910,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>136.0733654264093</v>
+        <v>171.8981745024879</v>
       </c>
       <c r="AB13" t="n">
-        <v>186.1815817095338</v>
+        <v>235.1986659664317</v>
       </c>
       <c r="AC13" t="n">
-        <v>168.4126728587194</v>
+        <v>212.7516353900644</v>
       </c>
       <c r="AD13" t="n">
-        <v>136073.3654264093</v>
+        <v>171898.1745024879</v>
       </c>
       <c r="AE13" t="n">
-        <v>186181.5817095338</v>
+        <v>235198.6659664317</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.68290952677581e-06</v>
+        <v>5.200483426518578e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.858796296296297</v>
       </c>
       <c r="AH13" t="n">
-        <v>168412.6728587194</v>
+        <v>212751.6353900644</v>
       </c>
     </row>
     <row r="14">
@@ -16016,28 +16016,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>136.4554611513936</v>
+        <v>172.2802702274721</v>
       </c>
       <c r="AB14" t="n">
-        <v>186.7043819373307</v>
+        <v>235.7214661942286</v>
       </c>
       <c r="AC14" t="n">
-        <v>168.8855777665302</v>
+        <v>213.2245402978752</v>
       </c>
       <c r="AD14" t="n">
-        <v>136455.4611513936</v>
+        <v>172280.2702274721</v>
       </c>
       <c r="AE14" t="n">
-        <v>186704.3819373307</v>
+        <v>235721.4661942286</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.681108617484114e-06</v>
+        <v>5.197940437380225e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>168885.5777665302</v>
+        <v>213224.5402978752</v>
       </c>
     </row>
     <row r="15">
@@ -16122,28 +16122,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>134.0858560095134</v>
+        <v>169.9106650855919</v>
       </c>
       <c r="AB15" t="n">
-        <v>183.462183642611</v>
+        <v>232.4792678995089</v>
       </c>
       <c r="AC15" t="n">
-        <v>165.9528103266036</v>
+        <v>210.2917728579486</v>
       </c>
       <c r="AD15" t="n">
-        <v>134085.8560095134</v>
+        <v>169910.6650855919</v>
       </c>
       <c r="AE15" t="n">
-        <v>183462.183642611</v>
+        <v>232479.2678995089</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.736886780268577e-06</v>
+        <v>5.276702462081983e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.748842592592593</v>
       </c>
       <c r="AH15" t="n">
-        <v>165952.8103266036</v>
+        <v>210291.7728579486</v>
       </c>
     </row>
     <row r="16">
@@ -16228,28 +16228,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>131.902917661823</v>
+        <v>167.7277267379016</v>
       </c>
       <c r="AB16" t="n">
-        <v>180.4753910908595</v>
+        <v>229.4924753477574</v>
       </c>
       <c r="AC16" t="n">
-        <v>163.2510730640007</v>
+        <v>207.5900355953457</v>
       </c>
       <c r="AD16" t="n">
-        <v>131902.917661823</v>
+        <v>167727.7267379016</v>
       </c>
       <c r="AE16" t="n">
-        <v>180475.3910908595</v>
+        <v>229492.4753477574</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.786611886822621e-06</v>
+        <v>5.346917217735391e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.644675925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>163251.0730640007</v>
+        <v>207590.0355953457</v>
       </c>
     </row>
     <row r="17">
@@ -16334,28 +16334,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>130.6229818869517</v>
+        <v>166.4477909630303</v>
       </c>
       <c r="AB17" t="n">
-        <v>178.7241264969003</v>
+        <v>227.7412107537982</v>
       </c>
       <c r="AC17" t="n">
-        <v>161.6669467049731</v>
+        <v>206.0059092363181</v>
       </c>
       <c r="AD17" t="n">
-        <v>130622.9818869517</v>
+        <v>166447.7909630303</v>
       </c>
       <c r="AE17" t="n">
-        <v>178724.1264969003</v>
+        <v>227741.2107537982</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.808322848839174e-06</v>
+        <v>5.377574364569977e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>161666.9467049731</v>
+        <v>206005.9092363181</v>
       </c>
     </row>
     <row r="18">
@@ -16440,28 +16440,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>128.7483689275016</v>
+        <v>164.5731780035801</v>
       </c>
       <c r="AB18" t="n">
-        <v>176.159198343695</v>
+        <v>225.1762826005928</v>
       </c>
       <c r="AC18" t="n">
-        <v>159.3468116948096</v>
+        <v>203.6857742261546</v>
       </c>
       <c r="AD18" t="n">
-        <v>128748.3689275016</v>
+        <v>164573.1780035801</v>
       </c>
       <c r="AE18" t="n">
-        <v>176159.198343695</v>
+        <v>225176.2826005928</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.854746288358441e-06</v>
+        <v>5.443126973469736e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.511574074074075</v>
       </c>
       <c r="AH18" t="n">
-        <v>159346.8116948096</v>
+        <v>203685.7742261545</v>
       </c>
     </row>
     <row r="19">
@@ -16546,28 +16546,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>127.6517690629946</v>
+        <v>163.3059859384809</v>
       </c>
       <c r="AB19" t="n">
-        <v>174.6587820305056</v>
+        <v>223.4424545125566</v>
       </c>
       <c r="AC19" t="n">
-        <v>157.989593008703</v>
+        <v>202.1174202573969</v>
       </c>
       <c r="AD19" t="n">
-        <v>127651.7690629946</v>
+        <v>163305.9859384809</v>
       </c>
       <c r="AE19" t="n">
-        <v>174658.7820305056</v>
+        <v>223442.4545125566</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.875856947277763e-06</v>
+        <v>5.472936457258205e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.471064814814816</v>
       </c>
       <c r="AH19" t="n">
-        <v>157989.593008703</v>
+        <v>202117.4202573969</v>
       </c>
     </row>
     <row r="20">
@@ -16652,28 +16652,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>127.51615967782</v>
+        <v>163.1703765533063</v>
       </c>
       <c r="AB20" t="n">
-        <v>174.473235287046</v>
+        <v>223.256907769097</v>
       </c>
       <c r="AC20" t="n">
-        <v>157.8217545860226</v>
+        <v>201.9495818347166</v>
       </c>
       <c r="AD20" t="n">
-        <v>127516.15967782</v>
+        <v>163170.3765533063</v>
       </c>
       <c r="AE20" t="n">
-        <v>174473.2352870459</v>
+        <v>223256.907769097</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.877757907085663e-06</v>
+        <v>5.475620723570911e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.465277777777779</v>
       </c>
       <c r="AH20" t="n">
-        <v>157821.7545860226</v>
+        <v>201949.5818347166</v>
       </c>
     </row>
     <row r="21">
@@ -16758,28 +16758,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>127.5726792650181</v>
+        <v>163.2268961405044</v>
       </c>
       <c r="AB21" t="n">
-        <v>174.5505678797185</v>
+        <v>223.3342403617696</v>
       </c>
       <c r="AC21" t="n">
-        <v>157.8917066645875</v>
+        <v>202.0195339132815</v>
       </c>
       <c r="AD21" t="n">
-        <v>127572.6792650181</v>
+        <v>163226.8961405044</v>
       </c>
       <c r="AE21" t="n">
-        <v>174550.5678797185</v>
+        <v>223334.2403617696</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.876607326149302e-06</v>
+        <v>5.473996036065853e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.465277777777779</v>
       </c>
       <c r="AH21" t="n">
-        <v>157891.7066645875</v>
+        <v>202019.5339132815</v>
       </c>
     </row>
   </sheetData>
@@ -17055,28 +17055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.247544248925</v>
+        <v>205.3346620239395</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.3624920146408</v>
+        <v>280.94794330698</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.0450892680541</v>
+        <v>254.1346659107594</v>
       </c>
       <c r="AD2" t="n">
-        <v>163247.5442489249</v>
+        <v>205334.6620239395</v>
       </c>
       <c r="AE2" t="n">
-        <v>223362.4920146408</v>
+        <v>280947.94330698</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.21859082881636e-06</v>
+        <v>4.711895893370474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.768518518518517</v>
       </c>
       <c r="AH2" t="n">
-        <v>202045.0892680541</v>
+        <v>254134.6659107594</v>
       </c>
     </row>
     <row r="3">
@@ -17161,28 +17161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.2158408629111</v>
+        <v>183.2176177833541</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.2177434717566</v>
+        <v>250.6864276418983</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.7773132176729</v>
+        <v>226.7612668284394</v>
       </c>
       <c r="AD3" t="n">
-        <v>141215.8408629111</v>
+        <v>183217.6177833541</v>
       </c>
       <c r="AE3" t="n">
-        <v>193217.7434717566</v>
+        <v>250686.4276418983</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.561355920119868e-06</v>
+        <v>5.213691092574996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.831018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>174777.3132176729</v>
+        <v>226761.2668284394</v>
       </c>
     </row>
     <row r="4">
@@ -17267,28 +17267,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.8687008609652</v>
+        <v>166.4531437349563</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.7968182712729</v>
+        <v>227.748534652495</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.4463850889505</v>
+        <v>206.0125341524025</v>
       </c>
       <c r="AD4" t="n">
-        <v>132868.7008609652</v>
+        <v>166453.1437349563</v>
       </c>
       <c r="AE4" t="n">
-        <v>181796.8182712729</v>
+        <v>227748.534652495</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.814748912010748e-06</v>
+        <v>5.584648900324225e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.240740740740742</v>
       </c>
       <c r="AH4" t="n">
-        <v>164446.3850889505</v>
+        <v>206012.5341524025</v>
       </c>
     </row>
     <row r="5">
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.3229556576395</v>
+        <v>152.9926498776512</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.2629320879898</v>
+        <v>209.3312931218612</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.6813469905214</v>
+        <v>189.3530083046856</v>
       </c>
       <c r="AD5" t="n">
-        <v>119322.9556576395</v>
+        <v>152992.6498776512</v>
       </c>
       <c r="AE5" t="n">
-        <v>163262.9320879898</v>
+        <v>209331.2931218612</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.984420077035452e-06</v>
+        <v>5.833041103068833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.893518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>147681.3469905214</v>
+        <v>189353.0083046856</v>
       </c>
     </row>
     <row r="6">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.6879961909233</v>
+        <v>148.3576904109349</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.9211760656516</v>
+        <v>202.989537099523</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.9448392622427</v>
+        <v>183.6165005764068</v>
       </c>
       <c r="AD6" t="n">
-        <v>114687.9961909233</v>
+        <v>148357.6904109349</v>
       </c>
       <c r="AE6" t="n">
-        <v>156921.1760656516</v>
+        <v>202989.537099523</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.137303413051947e-06</v>
+        <v>6.056856555685971e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.59837962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>141944.8392622427</v>
+        <v>183616.5005764069</v>
       </c>
     </row>
     <row r="7">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.5856598998813</v>
+        <v>145.0847619193007</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.6764226868323</v>
+        <v>198.5113719458569</v>
       </c>
       <c r="AC7" t="n">
-        <v>138.1051991883478</v>
+        <v>179.565725219861</v>
       </c>
       <c r="AD7" t="n">
-        <v>111585.6598998813</v>
+        <v>145084.7619193007</v>
       </c>
       <c r="AE7" t="n">
-        <v>152676.4226868323</v>
+        <v>198511.3719458569</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.241072841549284e-06</v>
+        <v>6.208771095308833e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH7" t="n">
-        <v>138105.1991883478</v>
+        <v>179565.725219861</v>
       </c>
     </row>
     <row r="8">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.9287138552721</v>
+        <v>144.4278158746915</v>
       </c>
       <c r="AB8" t="n">
-        <v>151.7775601261845</v>
+        <v>197.612509385209</v>
       </c>
       <c r="AC8" t="n">
-        <v>137.2921228089264</v>
+        <v>178.7526488404395</v>
       </c>
       <c r="AD8" t="n">
-        <v>110928.7138552721</v>
+        <v>144427.8158746915</v>
       </c>
       <c r="AE8" t="n">
-        <v>151777.5601261845</v>
+        <v>197612.509385209</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.26264167040449e-06</v>
+        <v>6.240347049356099e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>137292.1228089264</v>
+        <v>178752.6488404395</v>
       </c>
     </row>
     <row r="9">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>110.9021763238766</v>
+        <v>144.4012783432961</v>
       </c>
       <c r="AB9" t="n">
-        <v>151.7412503049759</v>
+        <v>197.5761995640005</v>
       </c>
       <c r="AC9" t="n">
-        <v>137.2592783460929</v>
+        <v>178.719804377606</v>
       </c>
       <c r="AD9" t="n">
-        <v>110902.1763238766</v>
+        <v>144401.2783432961</v>
       </c>
       <c r="AE9" t="n">
-        <v>151741.250304976</v>
+        <v>197576.1995640005</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.265684124852579e-06</v>
+        <v>6.244801088214151e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH9" t="n">
-        <v>137259.2783460928</v>
+        <v>178719.804377606</v>
       </c>
     </row>
   </sheetData>
@@ -18094,28 +18094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.7570898263384</v>
+        <v>305.3450072991641</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.8334011560492</v>
+        <v>417.786509857713</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.827546730046</v>
+        <v>377.9135517239415</v>
       </c>
       <c r="AD2" t="n">
-        <v>252757.0898263384</v>
+        <v>305345.0072991641</v>
       </c>
       <c r="AE2" t="n">
-        <v>345833.4011560492</v>
+        <v>417786.509857713</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39123285301099e-06</v>
+        <v>3.414230040613184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.43055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>312827.546730046</v>
+        <v>377913.5517239415</v>
       </c>
     </row>
     <row r="3">
@@ -18200,28 +18200,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.1764536305389</v>
+        <v>256.7642815948096</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.363231486582</v>
+        <v>351.3162177184927</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.7011967623426</v>
+        <v>317.7870909749531</v>
       </c>
       <c r="AD3" t="n">
-        <v>204176.4536305389</v>
+        <v>256764.2815948096</v>
       </c>
       <c r="AE3" t="n">
-        <v>279363.231486582</v>
+        <v>351316.2177184927</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767736199932211e-06</v>
+        <v>3.951805892262765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.74074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>252701.1967623426</v>
+        <v>317787.0909749531</v>
       </c>
     </row>
     <row r="4">
@@ -18306,28 +18306,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.4730224435</v>
+        <v>223.3673297925353</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.5629070980254</v>
+        <v>305.6210348931156</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.1267278943658</v>
+        <v>276.4529922648236</v>
       </c>
       <c r="AD4" t="n">
-        <v>179473.0224435</v>
+        <v>223367.3297925353</v>
       </c>
       <c r="AE4" t="n">
-        <v>245562.9070980254</v>
+        <v>305621.0348931156</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.034986802119266e-06</v>
+        <v>4.333389406059869e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.791666666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>222126.7278943658</v>
+        <v>276452.9922648236</v>
       </c>
     </row>
     <row r="5">
@@ -18412,28 +18412,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.9145492676175</v>
+        <v>204.0300846553968</v>
       </c>
       <c r="AB5" t="n">
-        <v>231.1163382918285</v>
+        <v>279.1629629974492</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.0589193391411</v>
+        <v>252.520041616734</v>
       </c>
       <c r="AD5" t="n">
-        <v>168914.5492676175</v>
+        <v>204030.0846553968</v>
       </c>
       <c r="AE5" t="n">
-        <v>231116.3382918285</v>
+        <v>279162.9629974492</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.252259538473532e-06</v>
+        <v>4.643613942550692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.137731481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>209058.9193391411</v>
+        <v>252520.041616734</v>
       </c>
     </row>
     <row r="6">
@@ -18518,28 +18518,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.5658653530637</v>
+        <v>197.3748318475274</v>
       </c>
       <c r="AB6" t="n">
-        <v>210.1155918238022</v>
+        <v>270.0569524966949</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.0624546392837</v>
+        <v>244.2830959778028</v>
       </c>
       <c r="AD6" t="n">
-        <v>153565.8653530637</v>
+        <v>197374.8318475274</v>
       </c>
       <c r="AE6" t="n">
-        <v>210115.5918238022</v>
+        <v>270056.9524966949</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.406148218879533e-06</v>
+        <v>4.863337987781545e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.726851851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>190062.4546392837</v>
+        <v>244283.0959778028</v>
       </c>
     </row>
     <row r="7">
@@ -18624,28 +18624,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.5939274676568</v>
+        <v>183.6241220008645</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.3127670625731</v>
+        <v>251.2426246459961</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.9088819254397</v>
+        <v>227.2643811710937</v>
       </c>
       <c r="AD7" t="n">
-        <v>148593.9274676568</v>
+        <v>183624.1220008645</v>
       </c>
       <c r="AE7" t="n">
-        <v>203312.7670625731</v>
+        <v>251242.6246459961</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.53111856581805e-06</v>
+        <v>5.04177210061421e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.420138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>183908.8819254397</v>
+        <v>227264.3811710937</v>
       </c>
     </row>
     <row r="8">
@@ -18730,28 +18730,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>144.3659268258341</v>
+        <v>179.3961213590418</v>
       </c>
       <c r="AB8" t="n">
-        <v>197.5278300582102</v>
+        <v>245.4576876416332</v>
       </c>
       <c r="AC8" t="n">
-        <v>178.6760511895612</v>
+        <v>222.0315504352152</v>
       </c>
       <c r="AD8" t="n">
-        <v>144365.9268258341</v>
+        <v>179396.1213590417</v>
       </c>
       <c r="AE8" t="n">
-        <v>197527.8300582102</v>
+        <v>245457.6876416332</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.643915475755158e-06</v>
+        <v>5.202824838707317e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.159722222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>178676.0511895612</v>
+        <v>222031.5504352152</v>
       </c>
     </row>
     <row r="9">
@@ -18836,28 +18836,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.3953379361577</v>
+        <v>176.1189635760498</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.1491422342531</v>
+        <v>240.9737357849482</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.8605223438847</v>
+        <v>217.9755406504649</v>
       </c>
       <c r="AD9" t="n">
-        <v>132395.3379361577</v>
+        <v>176118.9635760498</v>
       </c>
       <c r="AE9" t="n">
-        <v>181149.1422342531</v>
+        <v>240973.7357849482</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.722914404481603e-06</v>
+        <v>5.315620426679631e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.986111111111112</v>
       </c>
       <c r="AH9" t="n">
-        <v>163860.5223438847</v>
+        <v>217975.5406504649</v>
       </c>
     </row>
     <row r="10">
@@ -18942,28 +18942,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>129.1345444625</v>
+        <v>164.2499903417282</v>
       </c>
       <c r="AB10" t="n">
-        <v>176.6875807475417</v>
+        <v>224.734082983614</v>
       </c>
       <c r="AC10" t="n">
-        <v>159.8247660236227</v>
+        <v>203.285777519989</v>
       </c>
       <c r="AD10" t="n">
-        <v>129134.5444625</v>
+        <v>164249.9903417283</v>
       </c>
       <c r="AE10" t="n">
-        <v>176687.5807475417</v>
+        <v>224734.082983614</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.814189499635629e-06</v>
+        <v>5.445944067659345e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.795138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>159824.7660236227</v>
+        <v>203285.777519989</v>
       </c>
     </row>
     <row r="11">
@@ -19048,28 +19048,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.6385998515583</v>
+        <v>160.7540457307866</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.9042751006625</v>
+        <v>219.9507773367347</v>
       </c>
       <c r="AC11" t="n">
-        <v>155.4979723542685</v>
+        <v>198.9589838506348</v>
       </c>
       <c r="AD11" t="n">
-        <v>125638.5998515583</v>
+        <v>160754.0457307866</v>
       </c>
       <c r="AE11" t="n">
-        <v>171904.2751006625</v>
+        <v>219950.7773367348</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.909625136549631e-06</v>
+        <v>5.582208178486757e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>155497.9723542685</v>
+        <v>198958.9838506348</v>
       </c>
     </row>
     <row r="12">
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>126.7976427684217</v>
+        <v>161.91308864765</v>
       </c>
       <c r="AB12" t="n">
-        <v>173.4901287528789</v>
+        <v>221.5366309889511</v>
       </c>
       <c r="AC12" t="n">
-        <v>156.9324743596775</v>
+        <v>200.3934858560437</v>
       </c>
       <c r="AD12" t="n">
-        <v>126797.6427684217</v>
+        <v>161913.08864765</v>
       </c>
       <c r="AE12" t="n">
-        <v>173490.1287528789</v>
+        <v>221536.6309889511</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.871050237021958e-06</v>
+        <v>5.527130488911199e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.679398148148148</v>
       </c>
       <c r="AH12" t="n">
-        <v>156932.4743596775</v>
+        <v>200393.4858560437</v>
       </c>
     </row>
     <row r="13">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>123.3881450244851</v>
+        <v>158.5035909037133</v>
       </c>
       <c r="AB13" t="n">
-        <v>168.8251035232025</v>
+        <v>216.8716057592747</v>
       </c>
       <c r="AC13" t="n">
-        <v>152.7126725905159</v>
+        <v>196.1736840868821</v>
       </c>
       <c r="AD13" t="n">
-        <v>123388.1450244851</v>
+        <v>158503.5909037133</v>
       </c>
       <c r="AE13" t="n">
-        <v>168825.1035232025</v>
+        <v>216871.6057592747</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.96330126172462e-06</v>
+        <v>5.658847573435435e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.500000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>152712.6725905159</v>
+        <v>196173.6840868821</v>
       </c>
     </row>
     <row r="14">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>122.1274352913821</v>
+        <v>157.0722889700182</v>
       </c>
       <c r="AB14" t="n">
-        <v>167.1001448477838</v>
+        <v>214.9132353090092</v>
       </c>
       <c r="AC14" t="n">
-        <v>151.1523415500839</v>
+        <v>194.4022177637991</v>
       </c>
       <c r="AD14" t="n">
-        <v>122127.4352913821</v>
+        <v>157072.2889700182</v>
       </c>
       <c r="AE14" t="n">
-        <v>167100.1448477838</v>
+        <v>214913.2353090092</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.984668982368445e-06</v>
+        <v>5.689356653147062e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.459490740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>151152.3415500839</v>
+        <v>194402.2177637991</v>
       </c>
     </row>
     <row r="15">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>121.4042722826078</v>
+        <v>156.3491259612439</v>
       </c>
       <c r="AB15" t="n">
-        <v>166.110681315479</v>
+        <v>213.9237717767043</v>
       </c>
       <c r="AC15" t="n">
-        <v>150.2573110285811</v>
+        <v>193.5071872422963</v>
       </c>
       <c r="AD15" t="n">
-        <v>121404.2722826078</v>
+        <v>156349.1259612438</v>
       </c>
       <c r="AE15" t="n">
-        <v>166110.681315479</v>
+        <v>213923.7717767044</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.005831244159923e-06</v>
+        <v>5.719572376323e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH15" t="n">
-        <v>150257.3110285811</v>
+        <v>193507.1872422963</v>
       </c>
     </row>
     <row r="16">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>121.4578908968585</v>
+        <v>156.4027445754946</v>
       </c>
       <c r="AB16" t="n">
-        <v>166.1840446689831</v>
+        <v>213.9971351302085</v>
       </c>
       <c r="AC16" t="n">
-        <v>150.323672686593</v>
+        <v>193.5735489003081</v>
       </c>
       <c r="AD16" t="n">
-        <v>121457.8908968585</v>
+        <v>156402.7445754946</v>
       </c>
       <c r="AE16" t="n">
-        <v>166184.0446689831</v>
+        <v>213997.1351302085</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.004444396906598e-06</v>
+        <v>5.717592219707101e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.424768518518519</v>
       </c>
       <c r="AH16" t="n">
-        <v>150323.672686593</v>
+        <v>193573.5489003081</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.79545822086206</v>
+        <v>128.864613157821</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.808060368847</v>
+        <v>176.3182488279514</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.0376068880722</v>
+        <v>159.4906826240774</v>
       </c>
       <c r="AD2" t="n">
-        <v>97795.45822086206</v>
+        <v>128864.613157821</v>
       </c>
       <c r="AE2" t="n">
-        <v>133808.060368847</v>
+        <v>176318.2488279514</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.483619155837322e-06</v>
+        <v>6.936712260262832e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.824074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>121037.6068880722</v>
+        <v>159490.6826240774</v>
       </c>
     </row>
   </sheetData>
@@ -20172,28 +20172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.0263702725499</v>
+        <v>147.963016122129</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.8064455939439</v>
+        <v>202.4495263257782</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.7000058741473</v>
+        <v>183.1280276729983</v>
       </c>
       <c r="AD2" t="n">
-        <v>108026.3702725499</v>
+        <v>147963.016122129</v>
       </c>
       <c r="AE2" t="n">
-        <v>147806.4455939439</v>
+        <v>202449.5263257782</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.201238849800714e-06</v>
+        <v>6.349306933677225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.986111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>133700.0058741473</v>
+        <v>183128.0276729983</v>
       </c>
     </row>
     <row r="3">
@@ -20278,28 +20278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.4947432165384</v>
+        <v>134.5806052635163</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.2378294177504</v>
+        <v>184.1391213987341</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.8537278031879</v>
+        <v>166.5651420933707</v>
       </c>
       <c r="AD3" t="n">
-        <v>102494.7432165384</v>
+        <v>134580.6052635163</v>
       </c>
       <c r="AE3" t="n">
-        <v>140237.8294177504</v>
+        <v>184139.1213987341</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.43833025661176e-06</v>
+        <v>6.707621746759577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.563657407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>126853.7278031879</v>
+        <v>166565.1420933707</v>
       </c>
     </row>
     <row r="4">
@@ -20384,28 +20384,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.2245481341179</v>
+        <v>134.3104101810958</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.8681365858171</v>
+        <v>183.7694285668007</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.5193179362669</v>
+        <v>166.2307322264498</v>
       </c>
       <c r="AD4" t="n">
-        <v>102224.5481341179</v>
+        <v>134310.4101810958</v>
       </c>
       <c r="AE4" t="n">
-        <v>139868.1365858171</v>
+        <v>183769.4285668007</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.452075526527175e-06</v>
+        <v>6.728394890277316e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.54050925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>126519.3179362669</v>
+        <v>166230.7322264498</v>
       </c>
     </row>
   </sheetData>
@@ -20681,28 +20681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.2026854549915</v>
+        <v>411.10171450933</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.1120788058567</v>
+        <v>562.4875023192984</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.8178733900186</v>
+        <v>508.8044845541116</v>
       </c>
       <c r="AD2" t="n">
-        <v>339202.6854549915</v>
+        <v>411101.7145093299</v>
       </c>
       <c r="AE2" t="n">
-        <v>464112.0788058567</v>
+        <v>562487.5023192985</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.926574498123525e-06</v>
+        <v>2.713597773592494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.93634259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>419817.8733900186</v>
+        <v>508804.4845541116</v>
       </c>
     </row>
     <row r="3">
@@ -20787,28 +20787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.9072938668152</v>
+        <v>319.8103199524771</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.8260904704505</v>
+        <v>437.5785887945308</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.1030390290749</v>
+        <v>395.8167024253866</v>
       </c>
       <c r="AD3" t="n">
-        <v>265907.2938668152</v>
+        <v>319810.3199524771</v>
       </c>
       <c r="AE3" t="n">
-        <v>363826.0904704505</v>
+        <v>437578.5887945308</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319009206469262e-06</v>
+        <v>3.26634564391084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.40740740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>329103.0390290749</v>
+        <v>395816.7024253866</v>
       </c>
     </row>
     <row r="4">
@@ -20893,28 +20893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.6838051782642</v>
+        <v>275.6741258798869</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.6317592959783</v>
+        <v>377.1895009129535</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.5083071808201</v>
+        <v>341.1910643346098</v>
       </c>
       <c r="AD4" t="n">
-        <v>230683.8051782642</v>
+        <v>275674.1258798869</v>
       </c>
       <c r="AE4" t="n">
-        <v>315631.7592959783</v>
+        <v>377189.5009129535</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.602260255936596e-06</v>
+        <v>3.665307333661709e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>285508.3071808201</v>
+        <v>341191.0643346098</v>
       </c>
     </row>
     <row r="5">
@@ -20999,28 +20999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.9287949434632</v>
+        <v>250.8337747905107</v>
       </c>
       <c r="AB5" t="n">
-        <v>281.7608621787664</v>
+        <v>343.2018366733602</v>
       </c>
       <c r="AC5" t="n">
-        <v>254.8700009463614</v>
+        <v>310.44713506816</v>
       </c>
       <c r="AD5" t="n">
-        <v>205928.7949434632</v>
+        <v>250833.7747905107</v>
       </c>
       <c r="AE5" t="n">
-        <v>281760.8621787664</v>
+        <v>343201.8366733601</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.822914663087031e-06</v>
+        <v>3.9761010810927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.19097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>254870.0009463615</v>
+        <v>310447.13506816</v>
       </c>
     </row>
     <row r="6">
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>187.0175306384169</v>
+        <v>232.007761831485</v>
       </c>
       <c r="AB6" t="n">
-        <v>255.8856360505163</v>
+        <v>317.4432551977592</v>
       </c>
       <c r="AC6" t="n">
-        <v>231.4642700836753</v>
+        <v>287.1469164561862</v>
       </c>
       <c r="AD6" t="n">
-        <v>187017.5306384169</v>
+        <v>232007.761831485</v>
       </c>
       <c r="AE6" t="n">
-        <v>255885.6360505163</v>
+        <v>317443.2551977593</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.990071066160434e-06</v>
+        <v>4.211542401251103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.623842592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>231464.2700836753</v>
+        <v>287146.9164561862</v>
       </c>
     </row>
     <row r="7">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>180.6625009007003</v>
+        <v>225.4821398931762</v>
       </c>
       <c r="AB7" t="n">
-        <v>247.1904039992518</v>
+        <v>308.514611371648</v>
       </c>
       <c r="AC7" t="n">
-        <v>223.598898775546</v>
+        <v>279.0704098654058</v>
       </c>
       <c r="AD7" t="n">
-        <v>180662.5009007003</v>
+        <v>225482.1398931762</v>
       </c>
       <c r="AE7" t="n">
-        <v>247190.4039992518</v>
+        <v>308514.611371648</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.109795223983383e-06</v>
+        <v>4.380174970835111e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.253472222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>223598.898775546</v>
+        <v>279070.4098654058</v>
       </c>
     </row>
     <row r="8">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>165.7341469020714</v>
+        <v>210.639037240568</v>
       </c>
       <c r="AB8" t="n">
-        <v>226.7647714658408</v>
+        <v>288.2056234908862</v>
       </c>
       <c r="AC8" t="n">
-        <v>205.1226599435619</v>
+        <v>260.699683284134</v>
       </c>
       <c r="AD8" t="n">
-        <v>165734.1469020714</v>
+        <v>210639.037240568</v>
       </c>
       <c r="AE8" t="n">
-        <v>226764.7714658408</v>
+        <v>288205.6234908862</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.229419943137044e-06</v>
+        <v>4.54866748014538e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.912037037037036</v>
       </c>
       <c r="AH8" t="n">
-        <v>205122.6599435619</v>
+        <v>260699.683284134</v>
       </c>
     </row>
     <row r="9">
@@ -21423,28 +21423,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>160.7870779379577</v>
+        <v>205.6919682764542</v>
       </c>
       <c r="AB9" t="n">
-        <v>219.9959734598644</v>
+        <v>281.4368254849098</v>
       </c>
       <c r="AC9" t="n">
-        <v>198.999866519206</v>
+        <v>254.5768898597781</v>
       </c>
       <c r="AD9" t="n">
-        <v>160787.0779379577</v>
+        <v>205691.9682764543</v>
       </c>
       <c r="AE9" t="n">
-        <v>219995.9734598644</v>
+        <v>281436.8254849098</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.337360618649346e-06</v>
+        <v>4.700702907291094e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.622685185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>198999.866519206</v>
+        <v>254576.8898597781</v>
       </c>
     </row>
     <row r="10">
@@ -21529,28 +21529,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>157.7276305473135</v>
+        <v>193.6345641557475</v>
       </c>
       <c r="AB10" t="n">
-        <v>215.8099025666942</v>
+        <v>264.9393532318394</v>
       </c>
       <c r="AC10" t="n">
-        <v>195.2133083568913</v>
+        <v>239.6539132041877</v>
       </c>
       <c r="AD10" t="n">
-        <v>157727.6305473135</v>
+        <v>193634.5641557475</v>
       </c>
       <c r="AE10" t="n">
-        <v>215809.9025666942</v>
+        <v>264939.3532318394</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.410448040576146e-06</v>
+        <v>4.803647208490634e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH10" t="n">
-        <v>195213.3083568913</v>
+        <v>239653.9132041877</v>
       </c>
     </row>
     <row r="11">
@@ -21635,28 +21635,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>154.8696535986655</v>
+        <v>190.7765872070994</v>
       </c>
       <c r="AB11" t="n">
-        <v>211.8994924205116</v>
+        <v>261.0289430856567</v>
       </c>
       <c r="AC11" t="n">
-        <v>191.6761022667639</v>
+        <v>236.1167071140604</v>
       </c>
       <c r="AD11" t="n">
-        <v>154869.6535986655</v>
+        <v>190776.5872070994</v>
       </c>
       <c r="AE11" t="n">
-        <v>211899.4924205116</v>
+        <v>261028.9430856567</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.471304506180502e-06</v>
+        <v>4.889364096020046e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.287037037037036</v>
       </c>
       <c r="AH11" t="n">
-        <v>191676.1022667639</v>
+        <v>236116.7071140604</v>
       </c>
     </row>
     <row r="12">
@@ -21741,28 +21741,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>152.191952103419</v>
+        <v>188.0988857118529</v>
       </c>
       <c r="AB12" t="n">
-        <v>208.2357431028645</v>
+        <v>257.3651937680096</v>
       </c>
       <c r="AC12" t="n">
-        <v>188.3620160418875</v>
+        <v>232.8026208891839</v>
       </c>
       <c r="AD12" t="n">
-        <v>152191.952103419</v>
+        <v>188098.8857118529</v>
       </c>
       <c r="AE12" t="n">
-        <v>208235.7431028645</v>
+        <v>257365.1937680097</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.534597219182418e-06</v>
+        <v>4.97851246025611e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.142361111111112</v>
       </c>
       <c r="AH12" t="n">
-        <v>188362.0160418875</v>
+        <v>232802.6208891839</v>
       </c>
     </row>
     <row r="13">
@@ -21847,28 +21847,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>139.0726507871144</v>
+        <v>183.8922002710393</v>
       </c>
       <c r="AB13" t="n">
-        <v>190.28533625918</v>
+        <v>251.6094211620277</v>
       </c>
       <c r="AC13" t="n">
-        <v>172.1247708338043</v>
+        <v>227.5961711424375</v>
       </c>
       <c r="AD13" t="n">
-        <v>139072.6507871144</v>
+        <v>183892.2002710393</v>
       </c>
       <c r="AE13" t="n">
-        <v>190285.33625918</v>
+        <v>251609.4211620277</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.62598135625824e-06</v>
+        <v>5.10722785182397e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.934027777777779</v>
       </c>
       <c r="AH13" t="n">
-        <v>172124.7708338043</v>
+        <v>227596.1711424375</v>
       </c>
     </row>
     <row r="14">
@@ -21953,28 +21953,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>140.1020467013482</v>
+        <v>184.9215961852732</v>
       </c>
       <c r="AB14" t="n">
-        <v>191.6938011627766</v>
+        <v>253.0178860656244</v>
       </c>
       <c r="AC14" t="n">
-        <v>173.398813823795</v>
+        <v>228.8702141324282</v>
       </c>
       <c r="AD14" t="n">
-        <v>140102.0467013482</v>
+        <v>184921.5961852732</v>
       </c>
       <c r="AE14" t="n">
-        <v>191693.8011627766</v>
+        <v>253017.8860656244</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.608579589132812e-06</v>
+        <v>5.082717303919318e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.974537037037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>173398.813823795</v>
+        <v>228870.2141324282</v>
       </c>
     </row>
     <row r="15">
@@ -22059,28 +22059,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>137.6514318092639</v>
+        <v>173.6436167637184</v>
       </c>
       <c r="AB15" t="n">
-        <v>188.3407617539297</v>
+        <v>237.5868570717241</v>
       </c>
       <c r="AC15" t="n">
-        <v>170.365783790107</v>
+        <v>214.9119008881156</v>
       </c>
       <c r="AD15" t="n">
-        <v>137651.4318092639</v>
+        <v>173643.6167637184</v>
       </c>
       <c r="AE15" t="n">
-        <v>188340.7617539297</v>
+        <v>237586.8570717241</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.665408788630997e-06</v>
+        <v>5.162761750362226e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>170365.783790107</v>
+        <v>214911.9008881156</v>
       </c>
     </row>
     <row r="16">
@@ -22165,28 +22165,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>135.5501292468951</v>
+        <v>171.5423142013496</v>
       </c>
       <c r="AB16" t="n">
-        <v>185.4656668851717</v>
+        <v>234.7117622029662</v>
       </c>
       <c r="AC16" t="n">
-        <v>167.7650839404014</v>
+        <v>212.3112010384101</v>
       </c>
       <c r="AD16" t="n">
-        <v>135550.1292468951</v>
+        <v>171542.3142013496</v>
       </c>
       <c r="AE16" t="n">
-        <v>185465.6668851717</v>
+        <v>234711.7622029661</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.71478008793257e-06</v>
+        <v>5.232301676274568e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.743055555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>167765.0839404014</v>
+        <v>212311.2010384101</v>
       </c>
     </row>
     <row r="17">
@@ -22271,28 +22271,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>134.1885972313946</v>
+        <v>170.180782185849</v>
       </c>
       <c r="AB17" t="n">
-        <v>183.6027587150115</v>
+        <v>232.8488540328059</v>
       </c>
       <c r="AC17" t="n">
-        <v>166.0799691113927</v>
+        <v>210.6260862094013</v>
       </c>
       <c r="AD17" t="n">
-        <v>134188.5972313946</v>
+        <v>170180.782185849</v>
       </c>
       <c r="AE17" t="n">
-        <v>183602.7587150115</v>
+        <v>232848.8540328059</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.737750420538136e-06</v>
+        <v>5.264655599508708e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.69675925925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>166079.9691113927</v>
+        <v>210626.0862094013</v>
       </c>
     </row>
     <row r="18">
@@ -22377,28 +22377,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>132.2775532017827</v>
+        <v>168.2697381562372</v>
       </c>
       <c r="AB18" t="n">
-        <v>180.9879839643856</v>
+        <v>230.23407928218</v>
       </c>
       <c r="AC18" t="n">
-        <v>163.7147447931062</v>
+        <v>208.2608618911148</v>
       </c>
       <c r="AD18" t="n">
-        <v>132277.5532017827</v>
+        <v>168269.7381562372</v>
       </c>
       <c r="AE18" t="n">
-        <v>180987.9839643856</v>
+        <v>230234.07928218</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.787022281170421e-06</v>
+        <v>5.334055465147309e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.59837962962963</v>
       </c>
       <c r="AH18" t="n">
-        <v>163714.7447931062</v>
+        <v>208260.8618911149</v>
       </c>
     </row>
     <row r="19">
@@ -22483,28 +22483,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>130.7851454525495</v>
+        <v>166.777330407004</v>
       </c>
       <c r="AB19" t="n">
-        <v>178.9460058415027</v>
+        <v>228.1921011592971</v>
       </c>
       <c r="AC19" t="n">
-        <v>161.8676501963363</v>
+        <v>206.413767294345</v>
       </c>
       <c r="AD19" t="n">
-        <v>130785.1454525495</v>
+        <v>166777.330407004</v>
       </c>
       <c r="AE19" t="n">
-        <v>178946.0058415027</v>
+        <v>228192.1011592971</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.814517073228599e-06</v>
+        <v>5.372782130836661e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.54050925925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>161867.6501963363</v>
+        <v>206413.767294345</v>
       </c>
     </row>
     <row r="20">
@@ -22589,28 +22589,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>129.6261779732569</v>
+        <v>165.6183629277114</v>
       </c>
       <c r="AB20" t="n">
-        <v>177.3602554062987</v>
+        <v>226.6063507240931</v>
       </c>
       <c r="AC20" t="n">
-        <v>160.433241557053</v>
+        <v>204.9793586550616</v>
       </c>
       <c r="AD20" t="n">
-        <v>129626.1779732569</v>
+        <v>165618.3629277114</v>
       </c>
       <c r="AE20" t="n">
-        <v>177360.2554062987</v>
+        <v>226606.3507240931</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.83365901706657e-06</v>
+        <v>5.399743733531778e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.505787037037038</v>
       </c>
       <c r="AH20" t="n">
-        <v>160433.241557053</v>
+        <v>204979.3586550616</v>
       </c>
     </row>
     <row r="21">
@@ -22695,28 +22695,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>129.4356788599135</v>
+        <v>165.4278638143681</v>
       </c>
       <c r="AB21" t="n">
-        <v>177.0996061151947</v>
+        <v>226.3457014329892</v>
       </c>
       <c r="AC21" t="n">
-        <v>160.1974682684683</v>
+        <v>204.743585366477</v>
       </c>
       <c r="AD21" t="n">
-        <v>129435.6788599135</v>
+        <v>165427.8638143681</v>
       </c>
       <c r="AE21" t="n">
-        <v>177099.6061151947</v>
+        <v>226345.7014329892</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.829532312291111e-06</v>
+        <v>5.393931232171533e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.511574074074075</v>
       </c>
       <c r="AH21" t="n">
-        <v>160197.4682684683</v>
+        <v>204743.585366477</v>
       </c>
     </row>
     <row r="22">
@@ -22801,28 +22801,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>129.4785815832061</v>
+        <v>165.4707665376606</v>
       </c>
       <c r="AB22" t="n">
-        <v>177.1583075139381</v>
+        <v>226.4044028317325</v>
       </c>
       <c r="AC22" t="n">
-        <v>160.2505672881036</v>
+        <v>204.7966843861123</v>
       </c>
       <c r="AD22" t="n">
-        <v>129478.5815832061</v>
+        <v>165470.7665376606</v>
       </c>
       <c r="AE22" t="n">
-        <v>177158.3075139381</v>
+        <v>226404.4028317325</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.829233996283247e-06</v>
+        <v>5.393511051350309e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.511574074074075</v>
       </c>
       <c r="AH22" t="n">
-        <v>160250.5672881036</v>
+        <v>204796.6843861123</v>
       </c>
     </row>
   </sheetData>
@@ -23098,28 +23098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.7634272009569</v>
+        <v>132.9134224035006</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.6054546987325</v>
+        <v>181.8580082587448</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.1862674433184</v>
+        <v>164.5017351898989</v>
       </c>
       <c r="AD2" t="n">
-        <v>102763.4272009569</v>
+        <v>132913.4224035006</v>
       </c>
       <c r="AE2" t="n">
-        <v>140605.4546987325</v>
+        <v>181858.0082587448</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.413200892133941e-06</v>
+        <v>6.975011008986639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.258101851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>127186.2674433184</v>
+        <v>164501.7351898989</v>
       </c>
     </row>
   </sheetData>
@@ -23395,28 +23395,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.5341688890775</v>
+        <v>221.819830805258</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.6465703624552</v>
+        <v>303.5036785078868</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.2024064542606</v>
+        <v>274.5377134012719</v>
       </c>
       <c r="AD2" t="n">
-        <v>179534.1688890775</v>
+        <v>221819.830805258</v>
       </c>
       <c r="AE2" t="n">
-        <v>245646.5703624552</v>
+        <v>303503.6785078868</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.080110995001733e-06</v>
+        <v>4.490451587929288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>222202.4064542606</v>
+        <v>274537.7134012719</v>
       </c>
     </row>
     <row r="3">
@@ -23501,28 +23501,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.3239429687883</v>
+        <v>189.2207630871002</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.5210711785458</v>
+        <v>258.9001958865588</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.2383584205229</v>
+        <v>234.1911245599283</v>
       </c>
       <c r="AD3" t="n">
-        <v>155323.9429687883</v>
+        <v>189220.7630871002</v>
       </c>
       <c r="AE3" t="n">
-        <v>212521.0711785458</v>
+        <v>258900.1958865589</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.436703284754673e-06</v>
+        <v>5.01032259789058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.068287037037036</v>
       </c>
       <c r="AH3" t="n">
-        <v>192238.3584205229</v>
+        <v>234191.1245599283</v>
       </c>
     </row>
     <row r="4">
@@ -23607,28 +23607,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.3098671187438</v>
+        <v>172.1213463824841</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.2416619924755</v>
+        <v>235.5040195782909</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.1807033743077</v>
+        <v>213.0278464817743</v>
       </c>
       <c r="AD4" t="n">
-        <v>138309.8671187438</v>
+        <v>172121.3463824841</v>
       </c>
       <c r="AE4" t="n">
-        <v>189241.6619924754</v>
+        <v>235504.0195782909</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.675005787313411e-06</v>
+        <v>5.357740548983541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.47800925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>171180.7033743077</v>
+        <v>213027.8464817743</v>
       </c>
     </row>
     <row r="5">
@@ -23713,28 +23713,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.2308055615802</v>
+        <v>166.0422848253205</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.9240217807003</v>
+        <v>227.1863793665157</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.6568870704603</v>
+        <v>205.5040301779269</v>
       </c>
       <c r="AD5" t="n">
-        <v>132230.8055615802</v>
+        <v>166042.2848253205</v>
       </c>
       <c r="AE5" t="n">
-        <v>180924.0217807002</v>
+        <v>227186.3793665157</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.861297395730317e-06</v>
+        <v>5.629332530633258e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.06712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>163656.8870704603</v>
+        <v>205504.0301779269</v>
       </c>
     </row>
     <row r="6">
@@ -23819,28 +23819,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.2656488905955</v>
+        <v>153.1623795003564</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.184522441124</v>
+        <v>209.5635246795887</v>
       </c>
       <c r="AC6" t="n">
-        <v>147.6104206503039</v>
+        <v>189.5630760084828</v>
       </c>
       <c r="AD6" t="n">
-        <v>119265.6488905955</v>
+        <v>153162.3795003564</v>
       </c>
       <c r="AE6" t="n">
-        <v>163184.522441124</v>
+        <v>209563.5246795887</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.007800131713672e-06</v>
+        <v>5.842916860710969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.77199074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>147610.4206503039</v>
+        <v>189563.0760084828</v>
       </c>
     </row>
     <row r="7">
@@ -23925,28 +23925,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.3928412268711</v>
+        <v>149.289571836632</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.8855761394033</v>
+        <v>204.264578377868</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.8171983464999</v>
+        <v>184.7698537046788</v>
       </c>
       <c r="AD7" t="n">
-        <v>115392.8412268711</v>
+        <v>149289.571836632</v>
       </c>
       <c r="AE7" t="n">
-        <v>157885.5761394033</v>
+        <v>204264.578377868</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.131043337397573e-06</v>
+        <v>6.022591440478657e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.54050925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>142817.1983464999</v>
+        <v>184769.8537046787</v>
       </c>
     </row>
     <row r="8">
@@ -24031,28 +24031,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.3203020235239</v>
+        <v>145.0464404326926</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.3133483336372</v>
+        <v>198.458938797255</v>
       </c>
       <c r="AC8" t="n">
-        <v>137.7767761418434</v>
+        <v>179.5182962173712</v>
       </c>
       <c r="AD8" t="n">
-        <v>111320.3020235239</v>
+        <v>145046.4404326926</v>
       </c>
       <c r="AE8" t="n">
-        <v>152313.3483336371</v>
+        <v>198458.938797255</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.275769303705274e-06</v>
+        <v>6.233585442407685e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.28587962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>137776.7761418434</v>
+        <v>179518.2962173712</v>
       </c>
     </row>
     <row r="9">
@@ -24137,28 +24137,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>110.7418646593012</v>
+        <v>136.1645021251729</v>
       </c>
       <c r="AB9" t="n">
-        <v>151.5219048130526</v>
+        <v>186.3062789614494</v>
       </c>
       <c r="AC9" t="n">
-        <v>137.0608668800652</v>
+        <v>168.5254691799259</v>
       </c>
       <c r="AD9" t="n">
-        <v>110741.8646593012</v>
+        <v>136164.5021251729</v>
       </c>
       <c r="AE9" t="n">
-        <v>151521.9048130526</v>
+        <v>186306.2789614494</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.291975596807438e-06</v>
+        <v>6.257212374915362e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.256944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>137060.8668800652</v>
+        <v>168525.4691799259</v>
       </c>
     </row>
   </sheetData>
@@ -24434,28 +24434,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.5407173178603</v>
+        <v>138.6321863685072</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.9324890945276</v>
+        <v>189.6826734097231</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.6729673283563</v>
+        <v>171.5796252808568</v>
       </c>
       <c r="AD2" t="n">
-        <v>101540.7173178603</v>
+        <v>138632.1863685072</v>
       </c>
       <c r="AE2" t="n">
-        <v>138932.4890945276</v>
+        <v>189682.6734097231</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305815389750451e-06</v>
+        <v>6.898927680417051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.657407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>125672.9673283563</v>
+        <v>171579.6252808568</v>
       </c>
     </row>
   </sheetData>
@@ -24731,28 +24731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.9360663873041</v>
+        <v>325.6244686081743</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.1289700685646</v>
+        <v>445.5337634873912</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.6633280129129</v>
+        <v>403.0126464107182</v>
       </c>
       <c r="AD2" t="n">
-        <v>263936.0663873041</v>
+        <v>325624.4686081742</v>
       </c>
       <c r="AE2" t="n">
-        <v>361128.9700685646</v>
+        <v>445533.7634873912</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.29578966362519e-06</v>
+        <v>3.268319644968194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>326663.3280129129</v>
+        <v>403012.6464107182</v>
       </c>
     </row>
     <row r="3">
@@ -24837,28 +24837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.5665879345385</v>
+        <v>264.6907796398363</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.7889363229959</v>
+        <v>362.161602036278</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.9866238038507</v>
+        <v>327.5974070349357</v>
       </c>
       <c r="AD3" t="n">
-        <v>220566.5879345385</v>
+        <v>264690.7796398363</v>
       </c>
       <c r="AE3" t="n">
-        <v>301788.9363229959</v>
+        <v>362161.602036278</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.67551366167047e-06</v>
+        <v>3.808900266155219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.03587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>272986.6238038507</v>
+        <v>327597.4070349357</v>
       </c>
     </row>
     <row r="4">
@@ -24943,28 +24943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.0761754488079</v>
+        <v>238.1150262995308</v>
       </c>
       <c r="AB4" t="n">
-        <v>265.5435852855196</v>
+        <v>325.799483876428</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.2004781987099</v>
+        <v>294.705638397806</v>
       </c>
       <c r="AD4" t="n">
-        <v>194076.1754488079</v>
+        <v>238115.0262995308</v>
       </c>
       <c r="AE4" t="n">
-        <v>265543.5852855196</v>
+        <v>325799.483876428</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.947400941302569e-06</v>
+        <v>4.195962962410839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.01736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>240200.4781987099</v>
+        <v>294705.638397806</v>
       </c>
     </row>
     <row r="5">
@@ -25049,28 +25049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.4803591149687</v>
+        <v>218.43386911112</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.7317248711714</v>
+        <v>298.8708563398823</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.9475041116162</v>
+        <v>270.3470412787735</v>
       </c>
       <c r="AD5" t="n">
-        <v>174480.3591149687</v>
+        <v>218433.86911112</v>
       </c>
       <c r="AE5" t="n">
-        <v>238731.7248711714</v>
+        <v>298870.8563398822</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.153790422239056e-06</v>
+        <v>4.489782037279553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH5" t="n">
-        <v>215947.5041116161</v>
+        <v>270347.0412787735</v>
       </c>
     </row>
     <row r="6">
@@ -25155,28 +25155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.6508895961084</v>
+        <v>202.6896509382803</v>
       </c>
       <c r="AB6" t="n">
-        <v>217.0731463285693</v>
+        <v>277.3289224499294</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.3559899071072</v>
+        <v>250.8610393249767</v>
       </c>
       <c r="AD6" t="n">
-        <v>158650.8895961084</v>
+        <v>202689.6509382803</v>
       </c>
       <c r="AE6" t="n">
-        <v>217073.1463285693</v>
+        <v>277328.9224499294</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.304935264556113e-06</v>
+        <v>4.704954038969123e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.929398148148149</v>
       </c>
       <c r="AH6" t="n">
-        <v>196355.9899071072</v>
+        <v>250861.0393249767</v>
       </c>
     </row>
     <row r="7">
@@ -25261,28 +25261,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.8100094873071</v>
+        <v>188.1946320992735</v>
       </c>
       <c r="AB7" t="n">
-        <v>209.0813964822672</v>
+        <v>257.4961981993109</v>
       </c>
       <c r="AC7" t="n">
-        <v>189.1269614496423</v>
+        <v>232.9211224414277</v>
       </c>
       <c r="AD7" t="n">
-        <v>152810.0094873071</v>
+        <v>188194.6320992736</v>
       </c>
       <c r="AE7" t="n">
-        <v>209081.3964822672</v>
+        <v>257496.198199311</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.443633484691137e-06</v>
+        <v>4.902406847809467e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.570601851851853</v>
       </c>
       <c r="AH7" t="n">
-        <v>189126.9614496423</v>
+        <v>232921.1224414277</v>
       </c>
     </row>
     <row r="8">
@@ -25367,28 +25367,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>148.573481209414</v>
+        <v>183.7875116207883</v>
       </c>
       <c r="AB8" t="n">
-        <v>203.2847915900201</v>
+        <v>251.466181532217</v>
       </c>
       <c r="AC8" t="n">
-        <v>183.8835763927233</v>
+        <v>227.4666021018578</v>
       </c>
       <c r="AD8" t="n">
-        <v>148573.4812094141</v>
+        <v>183787.5116207883</v>
       </c>
       <c r="AE8" t="n">
-        <v>203284.7915900201</v>
+        <v>251466.181532217</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.551317170864375e-06</v>
+        <v>5.055706913812397e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.310185185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>183883.5763927233</v>
+        <v>227466.6021018578</v>
       </c>
     </row>
     <row r="9">
@@ -25473,28 +25473,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>144.9457298278499</v>
+        <v>180.1597602392241</v>
       </c>
       <c r="AB9" t="n">
-        <v>198.321142104671</v>
+        <v>246.5025320468679</v>
       </c>
       <c r="AC9" t="n">
-        <v>179.3936506477285</v>
+        <v>222.976676356863</v>
       </c>
       <c r="AD9" t="n">
-        <v>144945.7298278499</v>
+        <v>180159.7602392241</v>
       </c>
       <c r="AE9" t="n">
-        <v>198321.142104671</v>
+        <v>246502.5320468679</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.648696686214784e-06</v>
+        <v>5.194337811964738e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH9" t="n">
-        <v>179393.6506477285</v>
+        <v>222976.676356863</v>
       </c>
     </row>
     <row r="10">
@@ -25579,28 +25579,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>132.8837135874381</v>
+        <v>168.182995344833</v>
       </c>
       <c r="AB10" t="n">
-        <v>181.8173593459478</v>
+        <v>230.115393940794</v>
       </c>
       <c r="AC10" t="n">
-        <v>164.4649657522881</v>
+        <v>208.1535037121348</v>
       </c>
       <c r="AD10" t="n">
-        <v>132883.7135874381</v>
+        <v>168182.9953448329</v>
       </c>
       <c r="AE10" t="n">
-        <v>181817.3593459478</v>
+        <v>230115.393940794</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.731028031304128e-06</v>
+        <v>5.311545915483794e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.91087962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>164464.9657522881</v>
+        <v>208153.5037121348</v>
       </c>
     </row>
     <row r="11">
@@ -25685,28 +25685,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>129.2609948540689</v>
+        <v>164.5602766114637</v>
       </c>
       <c r="AB11" t="n">
-        <v>176.8605957518837</v>
+        <v>225.1586303467299</v>
       </c>
       <c r="AC11" t="n">
-        <v>159.9812687187785</v>
+        <v>203.6698066786252</v>
       </c>
       <c r="AD11" t="n">
-        <v>129260.9948540689</v>
+        <v>164560.2766114637</v>
       </c>
       <c r="AE11" t="n">
-        <v>176860.5957518838</v>
+        <v>225158.6303467299</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.824530729909313e-06</v>
+        <v>5.444657720781459e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>159981.2687187785</v>
+        <v>203669.8066786252</v>
       </c>
     </row>
     <row r="12">
@@ -25791,28 +25791,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.4268122366367</v>
+        <v>165.7260939940315</v>
       </c>
       <c r="AB12" t="n">
-        <v>178.4557185269453</v>
+        <v>226.7537531217915</v>
       </c>
       <c r="AC12" t="n">
-        <v>161.4241552149576</v>
+        <v>205.1126931748043</v>
       </c>
       <c r="AD12" t="n">
-        <v>130426.8122366367</v>
+        <v>165726.0939940315</v>
       </c>
       <c r="AE12" t="n">
-        <v>178455.7185269453</v>
+        <v>226753.7531217915</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.790251508162077e-06</v>
+        <v>5.395857320803265e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.789351851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>161424.1552149575</v>
+        <v>205112.6931748043</v>
       </c>
     </row>
     <row r="13">
@@ -25897,28 +25897,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>126.8559157118433</v>
+        <v>162.1551974692381</v>
       </c>
       <c r="AB13" t="n">
-        <v>173.5698603648891</v>
+        <v>221.8678949597352</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.0045964985415</v>
+        <v>200.6931344583881</v>
       </c>
       <c r="AD13" t="n">
-        <v>126855.9157118433</v>
+        <v>162155.1974692381</v>
       </c>
       <c r="AE13" t="n">
-        <v>173569.8603648891</v>
+        <v>221867.8949597352</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.885488572153283e-06</v>
+        <v>5.531438193956969e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.59837962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>157004.5964985415</v>
+        <v>200693.1344583881</v>
       </c>
     </row>
     <row r="14">
@@ -26003,28 +26003,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>124.7338545497675</v>
+        <v>160.0331363071624</v>
       </c>
       <c r="AB14" t="n">
-        <v>170.6663626642073</v>
+        <v>218.9643972590534</v>
       </c>
       <c r="AC14" t="n">
-        <v>154.3782045433272</v>
+        <v>198.0667425031739</v>
       </c>
       <c r="AD14" t="n">
-        <v>124733.8545497675</v>
+        <v>160033.1363071623</v>
       </c>
       <c r="AE14" t="n">
-        <v>170666.3626642073</v>
+        <v>218964.3972590534</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.933642716988688e-06</v>
+        <v>5.599991136783481e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.505787037037038</v>
       </c>
       <c r="AH14" t="n">
-        <v>154378.2045433272</v>
+        <v>198066.7425031739</v>
       </c>
     </row>
     <row r="15">
@@ -26109,28 +26109,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>123.5389578966492</v>
+        <v>158.6676474534518</v>
       </c>
       <c r="AB15" t="n">
-        <v>169.0314523482917</v>
+        <v>217.096075168291</v>
       </c>
       <c r="AC15" t="n">
-        <v>152.899327773351</v>
+        <v>196.3767304505467</v>
       </c>
       <c r="AD15" t="n">
-        <v>123538.9578966492</v>
+        <v>158667.6474534518</v>
       </c>
       <c r="AE15" t="n">
-        <v>169031.4523482917</v>
+        <v>217096.075168291</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.955781381033778e-06</v>
+        <v>5.631508061769398e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.465277777777779</v>
       </c>
       <c r="AH15" t="n">
-        <v>152899.327773351</v>
+        <v>196376.7304505467</v>
       </c>
     </row>
     <row r="16">
@@ -26215,28 +26215,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>122.8297578854561</v>
+        <v>157.9584474422587</v>
       </c>
       <c r="AB16" t="n">
-        <v>168.0610936052814</v>
+        <v>216.1257164252807</v>
       </c>
       <c r="AC16" t="n">
-        <v>152.0215787068663</v>
+        <v>195.4989813840619</v>
       </c>
       <c r="AD16" t="n">
-        <v>122829.7578854561</v>
+        <v>157958.4474422586</v>
       </c>
       <c r="AE16" t="n">
-        <v>168061.0936052814</v>
+        <v>216125.7164252807</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.979858453451479e-06</v>
+        <v>5.665784533182653e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH16" t="n">
-        <v>152021.5787068662</v>
+        <v>195498.9813840619</v>
       </c>
     </row>
     <row r="17">
@@ -26321,28 +26321,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>122.9435398513887</v>
+        <v>158.0722294081913</v>
       </c>
       <c r="AB17" t="n">
-        <v>168.2167751107765</v>
+        <v>216.2813979307758</v>
       </c>
       <c r="AC17" t="n">
-        <v>152.1624021879773</v>
+        <v>195.639804865173</v>
       </c>
       <c r="AD17" t="n">
-        <v>122943.5398513887</v>
+        <v>158072.2294081913</v>
       </c>
       <c r="AE17" t="n">
-        <v>168216.7751107765</v>
+        <v>216281.3979307758</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.977205894625801e-06</v>
+        <v>5.66200831175577e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.424768518518519</v>
       </c>
       <c r="AH17" t="n">
-        <v>152162.4021879773</v>
+        <v>195639.804865173</v>
       </c>
     </row>
   </sheetData>
@@ -26618,28 +26618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.2601022255055</v>
+        <v>438.5721644357477</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.1332301202554</v>
+        <v>600.0737838193415</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.3057779824834</v>
+        <v>542.8035841004681</v>
       </c>
       <c r="AD2" t="n">
-        <v>366260.1022255055</v>
+        <v>438572.1644357477</v>
       </c>
       <c r="AE2" t="n">
-        <v>501133.2301202554</v>
+        <v>600073.7838193416</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.841073504893472e-06</v>
+        <v>2.586880260872505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.53240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>453305.7779824834</v>
+        <v>542803.5841004681</v>
       </c>
     </row>
     <row r="3">
@@ -26724,28 +26724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.6909376469033</v>
+        <v>339.8786512262935</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.5807476311545</v>
+        <v>465.0369649956572</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.4495324186527</v>
+        <v>420.6544897399505</v>
       </c>
       <c r="AD3" t="n">
-        <v>276690.9376469033</v>
+        <v>339878.6512262935</v>
       </c>
       <c r="AE3" t="n">
-        <v>378580.7476311544</v>
+        <v>465036.9649956572</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.234929099655923e-06</v>
+        <v>3.140284164093707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>342449.5324186527</v>
+        <v>420654.4897399505</v>
       </c>
     </row>
     <row r="4">
@@ -26830,28 +26830,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.259544680684</v>
+        <v>293.3229991377763</v>
       </c>
       <c r="AB4" t="n">
-        <v>327.3654644181084</v>
+        <v>401.3374679177342</v>
       </c>
       <c r="AC4" t="n">
-        <v>296.1221639544564</v>
+        <v>363.0343832603388</v>
       </c>
       <c r="AD4" t="n">
-        <v>239259.544680684</v>
+        <v>293322.9991377763</v>
       </c>
       <c r="AE4" t="n">
-        <v>327365.4644181085</v>
+        <v>401337.4679177342</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.51402340805391e-06</v>
+        <v>3.532437739384224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.37731481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>296122.1639544565</v>
+        <v>363034.3832603388</v>
       </c>
     </row>
     <row r="5">
@@ -26936,28 +26936,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.8768897184777</v>
+        <v>257.9866772538579</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.2675519782442</v>
+        <v>352.988753387492</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.4693856141031</v>
+        <v>319.3000021871222</v>
       </c>
       <c r="AD5" t="n">
-        <v>212876.8897184777</v>
+        <v>257986.6772538578</v>
       </c>
       <c r="AE5" t="n">
-        <v>291267.5519782442</v>
+        <v>352988.753387492</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.737565741484776e-06</v>
+        <v>3.846535600379266e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.44560185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>263469.3856141032</v>
+        <v>319300.0021871222</v>
       </c>
     </row>
     <row r="6">
@@ -27042,28 +27042,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>193.1147578694908</v>
+        <v>238.3097967508915</v>
       </c>
       <c r="AB6" t="n">
-        <v>264.2281313387484</v>
+        <v>326.0659774006455</v>
       </c>
       <c r="AC6" t="n">
-        <v>239.010569330367</v>
+        <v>294.9466981540983</v>
       </c>
       <c r="AD6" t="n">
-        <v>193114.7578694908</v>
+        <v>238309.7967508915</v>
       </c>
       <c r="AE6" t="n">
-        <v>264228.1313387484</v>
+        <v>326065.9774006455</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.901355105400294e-06</v>
+        <v>4.076674957296705e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.855324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>239010.569330367</v>
+        <v>294946.6981540983</v>
       </c>
     </row>
     <row r="7">
@@ -27148,28 +27148,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.5091448705824</v>
+        <v>230.5335915513909</v>
       </c>
       <c r="AB7" t="n">
-        <v>253.8217960976827</v>
+        <v>315.4262303847328</v>
       </c>
       <c r="AC7" t="n">
-        <v>229.5974001193219</v>
+        <v>285.3223936604022</v>
       </c>
       <c r="AD7" t="n">
-        <v>185509.1448705824</v>
+        <v>230533.5915513909</v>
       </c>
       <c r="AE7" t="n">
-        <v>253821.7960976827</v>
+        <v>315426.2303847328</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.036182318665694e-06</v>
+        <v>4.266119787010274e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.421296296296298</v>
       </c>
       <c r="AH7" t="n">
-        <v>229597.4001193219</v>
+        <v>285322.3936604022</v>
       </c>
     </row>
     <row r="8">
@@ -27254,28 +27254,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>179.8134837710417</v>
+        <v>215.9696043847134</v>
       </c>
       <c r="AB8" t="n">
-        <v>246.0287413064613</v>
+        <v>295.4991406255274</v>
       </c>
       <c r="AC8" t="n">
-        <v>222.5481035397512</v>
+        <v>267.2971173799629</v>
       </c>
       <c r="AD8" t="n">
-        <v>179813.4837710417</v>
+        <v>215969.6043847134</v>
       </c>
       <c r="AE8" t="n">
-        <v>246028.7413064613</v>
+        <v>295499.1406255274</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.147483962461031e-06</v>
+        <v>4.42250899394391e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH8" t="n">
-        <v>222548.1035397512</v>
+        <v>267297.1173799629</v>
       </c>
     </row>
     <row r="9">
@@ -27360,28 +27360,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>165.6150290529567</v>
+        <v>210.7247270797858</v>
       </c>
       <c r="AB9" t="n">
-        <v>226.6017891695735</v>
+        <v>288.3228681092729</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.9752324489032</v>
+        <v>260.8057382406957</v>
       </c>
       <c r="AD9" t="n">
-        <v>165615.0290529567</v>
+        <v>210724.7270797858</v>
       </c>
       <c r="AE9" t="n">
-        <v>226601.7891695735</v>
+        <v>288322.8681092729</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.253546718937404e-06</v>
+        <v>4.5715370747963e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.79050925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>204975.2324489032</v>
+        <v>260805.7382406957</v>
       </c>
     </row>
     <row r="10">
@@ -27466,28 +27466,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>162.0822636702513</v>
+        <v>207.1919616970804</v>
       </c>
       <c r="AB10" t="n">
-        <v>221.7681037183494</v>
+        <v>283.4891826580488</v>
       </c>
       <c r="AC10" t="n">
-        <v>200.6028671530222</v>
+        <v>256.4333729448147</v>
       </c>
       <c r="AD10" t="n">
-        <v>162082.2636702513</v>
+        <v>207191.9616970804</v>
       </c>
       <c r="AE10" t="n">
-        <v>221768.1037183494</v>
+        <v>283489.1826580488</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.326693447541799e-06</v>
+        <v>4.674315061591052e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH10" t="n">
-        <v>200602.8671530222</v>
+        <v>256433.3729448147</v>
       </c>
     </row>
     <row r="11">
@@ -27572,28 +27572,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>158.7737561531279</v>
+        <v>194.8445359122279</v>
       </c>
       <c r="AB11" t="n">
-        <v>217.2412577723731</v>
+        <v>266.5948899692415</v>
       </c>
       <c r="AC11" t="n">
-        <v>196.5080570306603</v>
+        <v>241.1514478389331</v>
       </c>
       <c r="AD11" t="n">
-        <v>158773.7561531279</v>
+        <v>194844.5359122279</v>
       </c>
       <c r="AE11" t="n">
-        <v>217241.2577723731</v>
+        <v>266594.8899692415</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.403349242180595e-06</v>
+        <v>4.782023613968526e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.402777777777777</v>
       </c>
       <c r="AH11" t="n">
-        <v>196508.0570306603</v>
+        <v>241151.4478389331</v>
       </c>
     </row>
     <row r="12">
@@ -27678,28 +27678,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>155.8692517044821</v>
+        <v>191.940031463582</v>
       </c>
       <c r="AB12" t="n">
-        <v>213.2671866480451</v>
+        <v>262.6208188449135</v>
       </c>
       <c r="AC12" t="n">
-        <v>192.9132656767931</v>
+        <v>237.5566564850659</v>
       </c>
       <c r="AD12" t="n">
-        <v>155869.2517044821</v>
+        <v>191940.031463582</v>
       </c>
       <c r="AE12" t="n">
-        <v>213267.1866480451</v>
+        <v>262620.8188449135</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.466808971591436e-06</v>
+        <v>4.87119046197154e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>192913.2656767931</v>
+        <v>237556.6564850659</v>
       </c>
     </row>
     <row r="13">
@@ -27784,28 +27784,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>152.7910973453123</v>
+        <v>188.8618771044123</v>
       </c>
       <c r="AB13" t="n">
-        <v>209.055520055245</v>
+        <v>258.4091522521134</v>
       </c>
       <c r="AC13" t="n">
-        <v>189.1035546324973</v>
+        <v>233.7469454407701</v>
       </c>
       <c r="AD13" t="n">
-        <v>152791.0973453123</v>
+        <v>188861.8771044123</v>
       </c>
       <c r="AE13" t="n">
-        <v>209055.520055245</v>
+        <v>258409.1522521134</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.538967230890366e-06</v>
+        <v>4.972579557052849e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.084490740740742</v>
       </c>
       <c r="AH13" t="n">
-        <v>189103.5546324973</v>
+        <v>233746.9454407701</v>
       </c>
     </row>
     <row r="14">
@@ -27890,28 +27890,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>141.0165395025092</v>
+        <v>186.0408966747667</v>
       </c>
       <c r="AB14" t="n">
-        <v>192.9450505578993</v>
+        <v>254.5493623754011</v>
       </c>
       <c r="AC14" t="n">
-        <v>174.5306457327872</v>
+        <v>230.2555284926409</v>
       </c>
       <c r="AD14" t="n">
-        <v>141016.5395025092</v>
+        <v>186040.8966747667</v>
       </c>
       <c r="AE14" t="n">
-        <v>192945.0505578993</v>
+        <v>254549.3623754011</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.592641114177105e-06</v>
+        <v>5.047996377092783e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.962962962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>174530.6457327872</v>
+        <v>230255.5284926409</v>
       </c>
     </row>
     <row r="15">
@@ -27996,28 +27996,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>141.5197256791805</v>
+        <v>186.544082851438</v>
       </c>
       <c r="AB15" t="n">
-        <v>193.633532083828</v>
+        <v>255.2378439013298</v>
       </c>
       <c r="AC15" t="n">
-        <v>175.1534195481713</v>
+        <v>230.878302308025</v>
       </c>
       <c r="AD15" t="n">
-        <v>141519.7256791805</v>
+        <v>186544.082851438</v>
       </c>
       <c r="AE15" t="n">
-        <v>193633.532083828</v>
+        <v>255237.8439013298</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.592987078434018e-06</v>
+        <v>5.048482489192488e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.962962962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>175153.4195481713</v>
+        <v>230878.302308025</v>
       </c>
     </row>
     <row r="16">
@@ -28102,28 +28102,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>139.1764001822166</v>
+        <v>175.3324312873372</v>
       </c>
       <c r="AB16" t="n">
-        <v>190.4272907586589</v>
+        <v>239.8975676081765</v>
       </c>
       <c r="AC16" t="n">
-        <v>172.2531773950874</v>
+        <v>217.0020804540725</v>
       </c>
       <c r="AD16" t="n">
-        <v>139176.4001822165</v>
+        <v>175332.4312873372</v>
       </c>
       <c r="AE16" t="n">
-        <v>190427.2907586589</v>
+        <v>239897.5676081765</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.646166727068024e-06</v>
+        <v>5.123204863375699e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>172253.1773950874</v>
+        <v>217002.0804540724</v>
       </c>
     </row>
     <row r="17">
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>138.0038594922588</v>
+        <v>174.1598905973793</v>
       </c>
       <c r="AB17" t="n">
-        <v>188.822968857815</v>
+        <v>238.2932457073326</v>
       </c>
       <c r="AC17" t="n">
-        <v>170.8019697247796</v>
+        <v>215.5508727837646</v>
       </c>
       <c r="AD17" t="n">
-        <v>138003.8594922588</v>
+        <v>174159.8905973793</v>
       </c>
       <c r="AE17" t="n">
-        <v>188822.968857815</v>
+        <v>238293.2457073326</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.666578618225873e-06</v>
+        <v>5.151885477258289e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.800925925925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>170801.9697247796</v>
+        <v>215550.8727837646</v>
       </c>
     </row>
     <row r="18">
@@ -28314,28 +28314,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>135.835819601874</v>
+        <v>171.9918507069945</v>
       </c>
       <c r="AB18" t="n">
-        <v>185.8565610326225</v>
+        <v>235.3268378821401</v>
       </c>
       <c r="AC18" t="n">
-        <v>168.118671699043</v>
+        <v>212.867574758028</v>
       </c>
       <c r="AD18" t="n">
-        <v>135835.819601874</v>
+        <v>171991.8507069945</v>
       </c>
       <c r="AE18" t="n">
-        <v>185856.5610326225</v>
+        <v>235326.8378821401</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.716891705874032e-06</v>
+        <v>5.222580065472517e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.69675925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>168118.671699043</v>
+        <v>212867.574758028</v>
       </c>
     </row>
     <row r="19">
@@ -28420,28 +28420,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>134.6009220391761</v>
+        <v>170.7569531442967</v>
       </c>
       <c r="AB19" t="n">
-        <v>184.1669197075046</v>
+        <v>233.6371965570222</v>
       </c>
       <c r="AC19" t="n">
-        <v>166.5902873705673</v>
+        <v>211.3391904295523</v>
       </c>
       <c r="AD19" t="n">
-        <v>134600.922039176</v>
+        <v>170756.9531442967</v>
       </c>
       <c r="AE19" t="n">
-        <v>184166.9197075046</v>
+        <v>233637.1965570222</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.741504591580104e-06</v>
+        <v>5.257163469137237e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.644675925925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>166590.2873705673</v>
+        <v>211339.1904295523</v>
       </c>
     </row>
     <row r="20">
@@ -28526,28 +28526,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>133.4137455842335</v>
+        <v>169.5697766893541</v>
       </c>
       <c r="AB20" t="n">
-        <v>182.5425725073242</v>
+        <v>232.0128493568419</v>
       </c>
       <c r="AC20" t="n">
-        <v>165.1209655873861</v>
+        <v>209.8698686463711</v>
       </c>
       <c r="AD20" t="n">
-        <v>133413.7455842335</v>
+        <v>169569.7766893541</v>
       </c>
       <c r="AE20" t="n">
-        <v>182542.5725073242</v>
+        <v>232012.8493568418</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.760730319571395e-06</v>
+        <v>5.284177412963696e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>165120.965587386</v>
+        <v>209869.8686463711</v>
       </c>
     </row>
     <row r="21">
@@ -28632,28 +28632,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>131.9122469718094</v>
+        <v>168.06827807693</v>
       </c>
       <c r="AB21" t="n">
-        <v>180.4881558643629</v>
+        <v>229.9584327138805</v>
       </c>
       <c r="AC21" t="n">
-        <v>163.2626195854364</v>
+        <v>208.0115226444215</v>
       </c>
       <c r="AD21" t="n">
-        <v>131912.2469718094</v>
+        <v>168068.27807693</v>
       </c>
       <c r="AE21" t="n">
-        <v>180488.1558643629</v>
+        <v>229958.4327138805</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.7865787919093e-06</v>
+        <v>5.32049693127022e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>8</v>
+        <v>7.552083333333335</v>
       </c>
       <c r="AH21" t="n">
-        <v>163262.6195854364</v>
+        <v>208011.5226444215</v>
       </c>
     </row>
     <row r="22">
@@ -28738,28 +28738,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>130.8723344700045</v>
+        <v>167.0283655751251</v>
       </c>
       <c r="AB22" t="n">
-        <v>179.0653017016924</v>
+        <v>228.5355785512101</v>
       </c>
       <c r="AC22" t="n">
-        <v>161.9755606270625</v>
+        <v>206.7244636860475</v>
       </c>
       <c r="AD22" t="n">
-        <v>130872.3344700045</v>
+        <v>167028.3655751251</v>
       </c>
       <c r="AE22" t="n">
-        <v>179065.3017016925</v>
+        <v>228535.5785512101</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.811982453059745e-06</v>
+        <v>5.356191448305695e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>7.505787037037038</v>
       </c>
       <c r="AH22" t="n">
-        <v>161975.5606270625</v>
+        <v>206724.4636860475</v>
       </c>
     </row>
     <row r="23">
@@ -28844,28 +28844,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>131.0638655450043</v>
+        <v>167.2198966501249</v>
       </c>
       <c r="AB23" t="n">
-        <v>179.3273629682617</v>
+        <v>228.7976398177793</v>
       </c>
       <c r="AC23" t="n">
-        <v>162.2126111341557</v>
+        <v>206.9615141931407</v>
       </c>
       <c r="AD23" t="n">
-        <v>131063.8655450043</v>
+        <v>167219.8966501249</v>
       </c>
       <c r="AE23" t="n">
-        <v>179327.3629682617</v>
+        <v>228797.6398177793</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.808325116629526e-06</v>
+        <v>5.351052548965957e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>7.511574074074075</v>
       </c>
       <c r="AH23" t="n">
-        <v>162212.6111341557</v>
+        <v>206961.5141931407</v>
       </c>
     </row>
     <row r="24">
@@ -28950,28 +28950,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>131.1276674271334</v>
+        <v>167.2836985322539</v>
       </c>
       <c r="AB24" t="n">
-        <v>179.4146595181311</v>
+        <v>228.8849363676487</v>
       </c>
       <c r="AC24" t="n">
-        <v>162.291576223827</v>
+        <v>207.040479282812</v>
       </c>
       <c r="AD24" t="n">
-        <v>131127.6674271334</v>
+        <v>167283.6985322539</v>
       </c>
       <c r="AE24" t="n">
-        <v>179414.6595181311</v>
+        <v>228884.9363676487</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.806990683067148e-06</v>
+        <v>5.349177545152809e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>7.511574074074075</v>
       </c>
       <c r="AH24" t="n">
-        <v>162291.576223827</v>
+        <v>207040.479282812</v>
       </c>
     </row>
   </sheetData>
@@ -29247,28 +29247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.5553652788042</v>
+        <v>175.6360885340966</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.1045869381415</v>
+        <v>240.3130448496048</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.5339035532276</v>
+        <v>217.3779051307049</v>
       </c>
       <c r="AD2" t="n">
-        <v>134555.3652788042</v>
+        <v>175636.0885340966</v>
       </c>
       <c r="AE2" t="n">
-        <v>184104.5869381415</v>
+        <v>240313.0448496048</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.662694963820747e-06</v>
+        <v>5.438527700189615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.842592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>166533.9035532276</v>
+        <v>217377.9051307049</v>
       </c>
     </row>
     <row r="3">
@@ -29353,28 +29353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.7711899975046</v>
+        <v>157.6187899393752</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.7174466709248</v>
+        <v>215.6609820452043</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.4244131641404</v>
+        <v>195.078600600961</v>
       </c>
       <c r="AD3" t="n">
-        <v>124771.1899975046</v>
+        <v>157618.7899393752</v>
       </c>
       <c r="AE3" t="n">
-        <v>170717.4466709248</v>
+        <v>215660.9820452043</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.99547386070633e-06</v>
+        <v>5.932652181378423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>154424.4131641404</v>
+        <v>195078.600600961</v>
       </c>
     </row>
     <row r="4">
@@ -29459,28 +29459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.5478318066069</v>
+        <v>143.4806830944981</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.2564205038711</v>
+        <v>196.3166005307998</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.8207200207423</v>
+        <v>177.5804197082752</v>
       </c>
       <c r="AD4" t="n">
-        <v>110547.8318066069</v>
+        <v>143480.6830944981</v>
       </c>
       <c r="AE4" t="n">
-        <v>151256.420503871</v>
+        <v>196316.6005307998</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.217195847344478e-06</v>
+        <v>6.261874564892109e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.679398148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>136820.7200207423</v>
+        <v>177580.4197082752</v>
       </c>
     </row>
     <row r="5">
@@ -29565,28 +29565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.8535763868083</v>
+        <v>139.6158354741072</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.2017772594584</v>
+        <v>191.0285455115402</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.2484848333384</v>
+        <v>172.7970492382203</v>
       </c>
       <c r="AD5" t="n">
-        <v>106853.5763868083</v>
+        <v>139615.8354741072</v>
       </c>
       <c r="AE5" t="n">
-        <v>146201.7772594584</v>
+        <v>191028.5455115403</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.358983727211792e-06</v>
+        <v>6.472407333748501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.430555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>132248.4848333384</v>
+        <v>172797.0492382203</v>
       </c>
     </row>
     <row r="6">
@@ -29671,28 +29671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.6137402138092</v>
+        <v>139.3759993011082</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.873622826736</v>
+        <v>190.7003910788179</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.9516489991074</v>
+        <v>172.5002134039892</v>
       </c>
       <c r="AD6" t="n">
-        <v>106613.7402138092</v>
+        <v>139375.9993011082</v>
       </c>
       <c r="AE6" t="n">
-        <v>145873.622826736</v>
+        <v>190700.3910788179</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.365588926510783e-06</v>
+        <v>6.482215018993292e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>131951.6489991074</v>
+        <v>172500.2134039892</v>
       </c>
     </row>
   </sheetData>
@@ -29968,28 +29968,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.3915361252135</v>
+        <v>361.7854976885354</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.6407079489024</v>
+        <v>495.0108787871529</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.545173716603</v>
+        <v>447.7677352678381</v>
       </c>
       <c r="AD2" t="n">
-        <v>299391.5361252135</v>
+        <v>361785.4976885354</v>
       </c>
       <c r="AE2" t="n">
-        <v>409640.7079489024</v>
+        <v>495010.8787871529</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.103890167765765e-06</v>
+        <v>2.978585399540831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.84837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>370545.173716603</v>
+        <v>447767.7352678381</v>
       </c>
     </row>
     <row r="3">
@@ -30074,28 +30074,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.7981224825374</v>
+        <v>290.2786609653877</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.9976379763224</v>
+        <v>397.1720701235507</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.0757581414994</v>
+        <v>359.2665251854598</v>
       </c>
       <c r="AD3" t="n">
-        <v>236798.1224825374</v>
+        <v>290278.6609653877</v>
       </c>
       <c r="AE3" t="n">
-        <v>323997.6379763224</v>
+        <v>397172.0701235507</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.500584619383161e-06</v>
+        <v>3.540206115189323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.64930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>293075.7581414994</v>
+        <v>359266.5251854598</v>
       </c>
     </row>
     <row r="4">
@@ -30180,28 +30180,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.7858890044381</v>
+        <v>251.2677530607897</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.933576085313</v>
+        <v>343.7956248885255</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.9307926835819</v>
+        <v>310.9842529694573</v>
       </c>
       <c r="AD4" t="n">
-        <v>206785.8890044381</v>
+        <v>251267.7530607897</v>
       </c>
       <c r="AE4" t="n">
-        <v>282933.576085313</v>
+        <v>343795.6248885255</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.77545158712821e-06</v>
+        <v>3.929349402935613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.49768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>255930.7926835819</v>
+        <v>310984.2529694572</v>
       </c>
     </row>
     <row r="5">
@@ -30286,28 +30286,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.2965958278885</v>
+        <v>229.8637112302607</v>
       </c>
       <c r="AB5" t="n">
-        <v>253.530977120467</v>
+        <v>314.5096705763287</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.3343364971247</v>
+        <v>284.4933090337123</v>
       </c>
       <c r="AD5" t="n">
-        <v>185296.5958278885</v>
+        <v>229863.7112302607</v>
       </c>
       <c r="AE5" t="n">
-        <v>253530.977120467</v>
+        <v>314509.6705763288</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.983061729066045e-06</v>
+        <v>4.223273747013579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.768518518518517</v>
       </c>
       <c r="AH5" t="n">
-        <v>229334.3364971247</v>
+        <v>284493.3090337123</v>
       </c>
     </row>
     <row r="6">
@@ -30392,28 +30392,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.8856511653256</v>
+        <v>221.2821743671056</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.0227515684641</v>
+        <v>302.768033249479</v>
       </c>
       <c r="AC6" t="n">
-        <v>218.9244398399052</v>
+        <v>273.8722770938418</v>
       </c>
       <c r="AD6" t="n">
-        <v>176885.6511653256</v>
+        <v>221282.1743671056</v>
       </c>
       <c r="AE6" t="n">
-        <v>242022.7515684641</v>
+        <v>302768.033249479</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.144558658100133e-06</v>
+        <v>4.451913246480631e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.265046296296298</v>
       </c>
       <c r="AH6" t="n">
-        <v>218924.4398399052</v>
+        <v>273872.2770938418</v>
       </c>
     </row>
     <row r="7">
@@ -30498,28 +30498,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.1614377945598</v>
+        <v>206.6432123423603</v>
       </c>
       <c r="AB7" t="n">
-        <v>221.876433248144</v>
+        <v>282.7383595818081</v>
       </c>
       <c r="AC7" t="n">
-        <v>200.7008578645347</v>
+        <v>255.7542073691835</v>
       </c>
       <c r="AD7" t="n">
-        <v>162161.4377945598</v>
+        <v>206643.2123423603</v>
       </c>
       <c r="AE7" t="n">
-        <v>221876.433248144</v>
+        <v>282738.3595818082</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.268500503262827e-06</v>
+        <v>4.627384084288572e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.912037037037036</v>
       </c>
       <c r="AH7" t="n">
-        <v>200700.8578645347</v>
+        <v>255754.2073691835</v>
       </c>
     </row>
     <row r="8">
@@ -30604,28 +30604,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>157.3904708005169</v>
+        <v>201.8722453483174</v>
       </c>
       <c r="AB8" t="n">
-        <v>215.348585726689</v>
+        <v>276.2105120603532</v>
       </c>
       <c r="AC8" t="n">
-        <v>194.7960189486338</v>
+        <v>249.8493684532825</v>
       </c>
       <c r="AD8" t="n">
-        <v>157390.4708005169</v>
+        <v>201872.2453483174</v>
       </c>
       <c r="AE8" t="n">
-        <v>215348.585726689</v>
+        <v>276210.5120603532</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.375527458102748e-06</v>
+        <v>4.778907642850588e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.628472222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>194796.0189486337</v>
+        <v>249849.3684532825</v>
       </c>
     </row>
     <row r="9">
@@ -30710,28 +30710,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>152.7514458282551</v>
+        <v>188.3198868041323</v>
       </c>
       <c r="AB9" t="n">
-        <v>209.001267100306</v>
+        <v>257.6675772123462</v>
       </c>
       <c r="AC9" t="n">
-        <v>189.0544795034331</v>
+        <v>233.0761452819909</v>
       </c>
       <c r="AD9" t="n">
-        <v>152751.4458282551</v>
+        <v>188319.8868041323</v>
       </c>
       <c r="AE9" t="n">
-        <v>209001.267100306</v>
+        <v>257667.5772123462</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.488293393587896e-06</v>
+        <v>4.93855617115676e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.350694444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>189054.4795034331</v>
+        <v>233076.1452819909</v>
       </c>
     </row>
     <row r="10">
@@ -30816,28 +30816,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>149.5059882572276</v>
+        <v>185.0744292331048</v>
       </c>
       <c r="AB10" t="n">
-        <v>204.5606888721454</v>
+        <v>253.2269989841856</v>
       </c>
       <c r="AC10" t="n">
-        <v>185.0377038289761</v>
+        <v>229.0593696075339</v>
       </c>
       <c r="AD10" t="n">
-        <v>149505.9882572276</v>
+        <v>185074.4292331047</v>
       </c>
       <c r="AE10" t="n">
-        <v>204560.6888721454</v>
+        <v>253226.9989841856</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.568085361330735e-06</v>
+        <v>5.051521759266259e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.16550925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>185037.7038289761</v>
+        <v>229059.3696075339</v>
       </c>
     </row>
     <row r="11">
@@ -30922,28 +30922,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>146.9277256921434</v>
+        <v>182.4961666680206</v>
       </c>
       <c r="AB11" t="n">
-        <v>201.0329962856824</v>
+        <v>249.6993063977226</v>
       </c>
       <c r="AC11" t="n">
-        <v>181.8466892718163</v>
+        <v>225.8683550503741</v>
       </c>
       <c r="AD11" t="n">
-        <v>146927.7256921434</v>
+        <v>182496.1666680206</v>
       </c>
       <c r="AE11" t="n">
-        <v>201032.9962856824</v>
+        <v>249699.3063977226</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.631063122621771e-06</v>
+        <v>5.140682611458678e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>181846.6892718163</v>
+        <v>225868.3550503741</v>
       </c>
     </row>
     <row r="12">
@@ -31028,28 +31028,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>133.9984162230126</v>
+        <v>169.6521085449103</v>
       </c>
       <c r="AB12" t="n">
-        <v>183.3425446691495</v>
+        <v>232.1254994338389</v>
       </c>
       <c r="AC12" t="n">
-        <v>165.8445895288549</v>
+        <v>209.971767558125</v>
       </c>
       <c r="AD12" t="n">
-        <v>133998.4162230126</v>
+        <v>169652.1085449103</v>
       </c>
       <c r="AE12" t="n">
-        <v>183342.5446691495</v>
+        <v>232125.4994338389</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.72399433552605e-06</v>
+        <v>5.272250103982424e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.824074074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>165844.5895288549</v>
+        <v>209971.767558125</v>
       </c>
     </row>
     <row r="13">
@@ -31134,28 +31134,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>135.2527042447783</v>
+        <v>170.906396566676</v>
       </c>
       <c r="AB13" t="n">
-        <v>185.0587168758106</v>
+        <v>233.8416716405</v>
       </c>
       <c r="AC13" t="n">
-        <v>167.3969726687757</v>
+        <v>211.5241506980457</v>
       </c>
       <c r="AD13" t="n">
-        <v>135252.7042447783</v>
+        <v>170906.396566676</v>
       </c>
       <c r="AE13" t="n">
-        <v>185058.7168758106</v>
+        <v>233841.6716405</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.696306271009607e-06</v>
+        <v>5.233050688550105e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.881944444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>167396.9726687757</v>
+        <v>211524.1506980457</v>
       </c>
     </row>
     <row r="14">
@@ -31240,28 +31240,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>132.875384701211</v>
+        <v>168.5290770231087</v>
       </c>
       <c r="AB14" t="n">
-        <v>181.8059633963673</v>
+        <v>230.5889181610567</v>
       </c>
       <c r="AC14" t="n">
-        <v>164.4546574161412</v>
+        <v>208.5818354454112</v>
       </c>
       <c r="AD14" t="n">
-        <v>132875.384701211</v>
+        <v>168529.0770231087</v>
       </c>
       <c r="AE14" t="n">
-        <v>181805.9633963673</v>
+        <v>230588.9181610567</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.754199496816715e-06</v>
+        <v>5.315013102635862e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.760416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>164454.6574161412</v>
+        <v>208581.8354454112</v>
       </c>
     </row>
     <row r="15">
@@ -31346,28 +31346,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>130.7232180717448</v>
+        <v>166.3769103936426</v>
       </c>
       <c r="AB15" t="n">
-        <v>178.8612740670425</v>
+        <v>227.6442288317319</v>
       </c>
       <c r="AC15" t="n">
-        <v>161.7910051035088</v>
+        <v>205.9181831327789</v>
       </c>
       <c r="AD15" t="n">
-        <v>130723.2180717448</v>
+        <v>166376.9103936426</v>
       </c>
       <c r="AE15" t="n">
-        <v>178861.2740670425</v>
+        <v>227644.2288317319</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.804742800043094e-06</v>
+        <v>5.38656985371595e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH15" t="n">
-        <v>161791.0051035088</v>
+        <v>205918.1831327789</v>
       </c>
     </row>
     <row r="16">
@@ -31452,28 +31452,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>128.5840840661672</v>
+        <v>164.237776388065</v>
       </c>
       <c r="AB16" t="n">
-        <v>175.9344165486808</v>
+        <v>224.7173713133702</v>
       </c>
       <c r="AC16" t="n">
-        <v>159.1434827588283</v>
+        <v>203.2706607880983</v>
       </c>
       <c r="AD16" t="n">
-        <v>128584.0840661672</v>
+        <v>164237.776388065</v>
       </c>
       <c r="AE16" t="n">
-        <v>175934.4165486808</v>
+        <v>224717.3713133702</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.853926871011393e-06</v>
+        <v>5.456202269856632e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.557870370370371</v>
       </c>
       <c r="AH16" t="n">
-        <v>159143.4827588283</v>
+        <v>203270.6607880983</v>
       </c>
     </row>
     <row r="17">
@@ -31558,28 +31558,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>127.1162736828799</v>
+        <v>162.7699660047777</v>
       </c>
       <c r="AB17" t="n">
-        <v>173.9260936270443</v>
+        <v>222.7090483917337</v>
       </c>
       <c r="AC17" t="n">
-        <v>157.3268313581332</v>
+        <v>201.4540093874032</v>
       </c>
       <c r="AD17" t="n">
-        <v>127116.27368288</v>
+        <v>162769.9660047777</v>
       </c>
       <c r="AE17" t="n">
-        <v>173926.0936270443</v>
+        <v>222709.0483917337</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.8784937355278e-06</v>
+        <v>5.490982842094762e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.511574074074075</v>
       </c>
       <c r="AH17" t="n">
-        <v>157326.8313581332</v>
+        <v>201454.0093874032</v>
       </c>
     </row>
     <row r="18">
@@ -31664,28 +31664,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>126.3578315084222</v>
+        <v>161.8409316297277</v>
       </c>
       <c r="AB18" t="n">
-        <v>172.8883595838444</v>
+        <v>221.437902573687</v>
       </c>
       <c r="AC18" t="n">
-        <v>156.388137195547</v>
+        <v>200.3041799421661</v>
       </c>
       <c r="AD18" t="n">
-        <v>126357.8315084222</v>
+        <v>161840.9316297277</v>
       </c>
       <c r="AE18" t="n">
-        <v>172888.3595838444</v>
+        <v>221437.902573687</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.900191109721593e-06</v>
+        <v>5.521700929460815e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.471064814814816</v>
       </c>
       <c r="AH18" t="n">
-        <v>156388.1371955471</v>
+        <v>200304.1799421661</v>
       </c>
     </row>
     <row r="19">
@@ -31770,28 +31770,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>126.4530653669155</v>
+        <v>161.9361654882211</v>
       </c>
       <c r="AB19" t="n">
-        <v>173.0186627504563</v>
+        <v>221.5682057402989</v>
       </c>
       <c r="AC19" t="n">
-        <v>156.5060044108192</v>
+        <v>200.4220471574382</v>
       </c>
       <c r="AD19" t="n">
-        <v>126453.0653669155</v>
+        <v>161936.1654882211</v>
       </c>
       <c r="AE19" t="n">
-        <v>173018.6627504562</v>
+        <v>221568.2057402988</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.894150077463461e-06</v>
+        <v>5.513148329730127e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>156506.0044108192</v>
+        <v>200422.0471574382</v>
       </c>
     </row>
   </sheetData>
@@ -32067,28 +32067,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.4823627798541</v>
+        <v>198.1043011874949</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.1060722699205</v>
+        <v>271.0550446295539</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.6720892323003</v>
+        <v>245.1859315983331</v>
       </c>
       <c r="AD2" t="n">
-        <v>156482.3627798541</v>
+        <v>198104.3011874949</v>
       </c>
       <c r="AE2" t="n">
-        <v>214106.0722699205</v>
+        <v>271055.0446295539</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.351065416408401e-06</v>
+        <v>4.927548938670766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.473379629629632</v>
       </c>
       <c r="AH2" t="n">
-        <v>193672.0892323003</v>
+        <v>245185.9315983331</v>
       </c>
     </row>
     <row r="3">
@@ -32173,28 +32173,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.7102505956146</v>
+        <v>177.4174403492759</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.6847519785449</v>
+        <v>242.7503689908276</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.963259859951</v>
+        <v>219.582614476696</v>
       </c>
       <c r="AD3" t="n">
-        <v>135710.2505956145</v>
+        <v>177417.4403492759</v>
       </c>
       <c r="AE3" t="n">
-        <v>185684.7519785449</v>
+        <v>242750.3689908276</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.694179413872409e-06</v>
+        <v>5.432078335730083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>167963.259859951</v>
+        <v>219582.614476696</v>
       </c>
     </row>
     <row r="4">
@@ -32279,28 +32279,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.4730974868059</v>
+        <v>161.8218706273716</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.7825598144164</v>
+        <v>221.4118224693513</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.0061190181497</v>
+        <v>200.2805888863845</v>
       </c>
       <c r="AD4" t="n">
-        <v>128473.0974868059</v>
+        <v>161821.8706273716</v>
       </c>
       <c r="AE4" t="n">
-        <v>175782.5598144164</v>
+        <v>221411.8224693513</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.932428647405602e-06</v>
+        <v>5.782410129340326e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.072916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>159006.1190181497</v>
+        <v>200280.5888863846</v>
       </c>
     </row>
     <row r="5">
@@ -32385,28 +32385,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.8739234821287</v>
+        <v>148.307947968715</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.1755699880119</v>
+        <v>202.9214772955961</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.1749541856971</v>
+        <v>183.5549363046442</v>
       </c>
       <c r="AD5" t="n">
-        <v>114873.9234821287</v>
+        <v>148307.947968715</v>
       </c>
       <c r="AE5" t="n">
-        <v>157175.5699880119</v>
+        <v>202921.4772955961</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.110786499028517e-06</v>
+        <v>6.044675090855175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.719907407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>142174.9541856971</v>
+        <v>183554.9363046442</v>
       </c>
     </row>
     <row r="6">
@@ -32491,28 +32491,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.7875989071363</v>
+        <v>144.0510311931304</v>
       </c>
       <c r="AB6" t="n">
-        <v>151.5844804285931</v>
+        <v>197.0969759613304</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.117470366684</v>
+        <v>178.28631720298</v>
       </c>
       <c r="AD6" t="n">
-        <v>110787.5989071363</v>
+        <v>144051.0311931304</v>
       </c>
       <c r="AE6" t="n">
-        <v>151584.4804285931</v>
+        <v>197096.9759613304</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.248832843596438e-06</v>
+        <v>6.247664299998126e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.471064814814816</v>
       </c>
       <c r="AH6" t="n">
-        <v>137117.470366684</v>
+        <v>178286.31720298</v>
       </c>
     </row>
     <row r="7">
@@ -32597,28 +32597,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.5203406069748</v>
+        <v>142.7837728929689</v>
       </c>
       <c r="AB7" t="n">
-        <v>149.8505617148225</v>
+        <v>195.3630572475598</v>
       </c>
       <c r="AC7" t="n">
-        <v>135.5490344213849</v>
+        <v>176.7178812576809</v>
       </c>
       <c r="AD7" t="n">
-        <v>109520.3406069748</v>
+        <v>142783.7728929689</v>
       </c>
       <c r="AE7" t="n">
-        <v>149850.5617148225</v>
+        <v>195363.0572475598</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.294135299143956e-06</v>
+        <v>6.314278955044642e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.390046296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>135549.0344213849</v>
+        <v>176717.8812576809</v>
       </c>
     </row>
     <row r="8">
@@ -32703,28 +32703,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>109.664281763835</v>
+        <v>142.9277140498292</v>
       </c>
       <c r="AB8" t="n">
-        <v>150.0475083558743</v>
+        <v>195.5600038886116</v>
       </c>
       <c r="AC8" t="n">
-        <v>135.7271847514312</v>
+        <v>176.8960315877272</v>
       </c>
       <c r="AD8" t="n">
-        <v>109664.281763835</v>
+        <v>142927.7140498292</v>
       </c>
       <c r="AE8" t="n">
-        <v>150047.5083558743</v>
+        <v>195560.0038886116</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.288321666833984e-06</v>
+        <v>6.305730343137946e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.40162037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>135727.1847514312</v>
+        <v>176896.0315877272</v>
       </c>
     </row>
   </sheetData>
@@ -33000,28 +33000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.1626259276557</v>
+        <v>247.5692563230585</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.3983588783764</v>
+        <v>338.7351784858039</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.7827962065653</v>
+        <v>306.4067684690286</v>
       </c>
       <c r="AD2" t="n">
-        <v>196162.6259276557</v>
+        <v>247569.2563230584</v>
       </c>
       <c r="AE2" t="n">
-        <v>268398.3588783764</v>
+        <v>338735.1784858039</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825524972020725e-06</v>
+        <v>4.08789184641623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.84490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>242782.7962065653</v>
+        <v>306406.7684690286</v>
       </c>
     </row>
     <row r="3">
@@ -33106,28 +33106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.3795468809433</v>
+        <v>210.2895229225886</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.0160803068561</v>
+        <v>287.7274025815436</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.1591070285232</v>
+        <v>260.2671031071916</v>
       </c>
       <c r="AD3" t="n">
-        <v>167379.5468809433</v>
+        <v>210289.5229225886</v>
       </c>
       <c r="AE3" t="n">
-        <v>229016.0803068561</v>
+        <v>287727.4025815436</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.198210095920488e-06</v>
+        <v>4.627082437317611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.577546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>207159.1070285232</v>
+        <v>260267.1031071916</v>
       </c>
     </row>
     <row r="4">
@@ -33212,28 +33212,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.1053015685107</v>
+        <v>190.9299367555844</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.6442075507084</v>
+        <v>261.2387627031983</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.304128795058</v>
+        <v>236.3065018417876</v>
       </c>
       <c r="AD4" t="n">
-        <v>148105.3015685107</v>
+        <v>190929.9367555844</v>
       </c>
       <c r="AE4" t="n">
-        <v>202644.2075507084</v>
+        <v>261238.7627031983</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.451466577843281e-06</v>
+        <v>4.993486952498322e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.877314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>183304.128795058</v>
+        <v>236306.5018417876</v>
       </c>
     </row>
     <row r="5">
@@ -33318,28 +33318,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>141.2080870177889</v>
+        <v>175.4508165050845</v>
       </c>
       <c r="AB5" t="n">
-        <v>193.2071343187849</v>
+        <v>240.0595474858856</v>
       </c>
       <c r="AC5" t="n">
-        <v>174.7677165873707</v>
+        <v>217.1486011995932</v>
       </c>
       <c r="AD5" t="n">
-        <v>141208.0870177889</v>
+        <v>175450.8165050845</v>
       </c>
       <c r="AE5" t="n">
-        <v>193207.1343187849</v>
+        <v>240059.5474858856</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.642044198019296e-06</v>
+        <v>5.269209413754709e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.414351851851851</v>
       </c>
       <c r="AH5" t="n">
-        <v>174767.7165873707</v>
+        <v>217148.6011995932</v>
       </c>
     </row>
     <row r="6">
@@ -33424,28 +33424,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.836901247286</v>
+        <v>170.0796307345816</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.8580409875941</v>
+        <v>232.7104541546948</v>
       </c>
       <c r="AC6" t="n">
-        <v>168.1200104091892</v>
+        <v>210.5008950214117</v>
       </c>
       <c r="AD6" t="n">
-        <v>135836.901247286</v>
+        <v>170079.6307345816</v>
       </c>
       <c r="AE6" t="n">
-        <v>185858.0409875941</v>
+        <v>232710.4541546948</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.803135225295854e-06</v>
+        <v>5.502271483088927e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>168120.0104091892</v>
+        <v>210500.8950214117</v>
       </c>
     </row>
     <row r="7">
@@ -33530,28 +33530,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>123.4730167029461</v>
+        <v>157.8009975362624</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.9412286979471</v>
+        <v>215.9102865176971</v>
       </c>
       <c r="AC7" t="n">
-        <v>152.8177149415655</v>
+        <v>195.3041118045003</v>
       </c>
       <c r="AD7" t="n">
-        <v>123473.0167029461</v>
+        <v>157800.9975362624</v>
       </c>
       <c r="AE7" t="n">
-        <v>168941.2286979471</v>
+        <v>215910.2865176971</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.913881997909251e-06</v>
+        <v>5.662496868907917e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.829861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>152817.7149415655</v>
+        <v>195304.1118045003</v>
       </c>
     </row>
     <row r="8">
@@ -33636,28 +33636,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.9644390842871</v>
+        <v>154.2924199176034</v>
       </c>
       <c r="AB8" t="n">
-        <v>164.14063801258</v>
+        <v>211.10969583233</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.475285893537</v>
+        <v>190.9616827564717</v>
       </c>
       <c r="AD8" t="n">
-        <v>119964.4390842871</v>
+        <v>154292.4199176033</v>
       </c>
       <c r="AE8" t="n">
-        <v>164140.63801258</v>
+        <v>211109.69583233</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.021875982675659e-06</v>
+        <v>5.818739596953203e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.61574074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>148475.285893537</v>
+        <v>190961.6827564717</v>
       </c>
     </row>
     <row r="9">
@@ -33742,28 +33742,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>115.9607281531306</v>
+        <v>150.1181167858547</v>
       </c>
       <c r="AB9" t="n">
-        <v>158.6625840853142</v>
+        <v>205.3982301302173</v>
       </c>
       <c r="AC9" t="n">
-        <v>143.5200497445908</v>
+        <v>185.7953113248744</v>
       </c>
       <c r="AD9" t="n">
-        <v>115960.7281531306</v>
+        <v>150118.1167858547</v>
       </c>
       <c r="AE9" t="n">
-        <v>158662.5840853142</v>
+        <v>205398.2301302173</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.142098698070027e-06</v>
+        <v>5.992674516262441e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>143520.0497445907</v>
+        <v>185795.3113248744</v>
       </c>
     </row>
     <row r="10">
@@ -33848,28 +33848,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>116.4809157385322</v>
+        <v>150.6383043712563</v>
       </c>
       <c r="AB10" t="n">
-        <v>159.3743276887169</v>
+        <v>206.1099737336201</v>
       </c>
       <c r="AC10" t="n">
-        <v>144.1638655374234</v>
+        <v>186.4391271177071</v>
       </c>
       <c r="AD10" t="n">
-        <v>116480.9157385322</v>
+        <v>150638.3043712563</v>
       </c>
       <c r="AE10" t="n">
-        <v>159374.3276887169</v>
+        <v>206109.9737336201</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.111553340614039e-06</v>
+        <v>5.948482332888848e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.453703703703705</v>
       </c>
       <c r="AH10" t="n">
-        <v>144163.8655374234</v>
+        <v>186439.1271177071</v>
       </c>
     </row>
     <row r="11">
@@ -33954,28 +33954,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.6057944701848</v>
+        <v>149.7631831029089</v>
       </c>
       <c r="AB11" t="n">
-        <v>158.176948161739</v>
+        <v>204.9125942066422</v>
       </c>
       <c r="AC11" t="n">
-        <v>143.0807622319672</v>
+        <v>185.3560238122508</v>
       </c>
       <c r="AD11" t="n">
-        <v>115605.7944701848</v>
+        <v>149763.1831029089</v>
       </c>
       <c r="AE11" t="n">
-        <v>158176.948161739</v>
+        <v>204912.5942066422</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.142628080348294e-06</v>
+        <v>5.993440411988153e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>143080.7622319672</v>
+        <v>185356.0238122508</v>
       </c>
     </row>
     <row r="12">
@@ -34060,28 +34060,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.6612039147091</v>
+        <v>149.8185925474331</v>
       </c>
       <c r="AB12" t="n">
-        <v>158.2527618082292</v>
+        <v>204.9884078531324</v>
       </c>
       <c r="AC12" t="n">
-        <v>143.1493403304415</v>
+        <v>185.4246019107252</v>
       </c>
       <c r="AD12" t="n">
-        <v>115661.2039147091</v>
+        <v>149818.5925474331</v>
       </c>
       <c r="AE12" t="n">
-        <v>158252.7618082292</v>
+        <v>204988.4078531324</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.142363389209162e-06</v>
+        <v>5.993057464125297e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>143149.3403304415</v>
+        <v>185424.6019107251</v>
       </c>
     </row>
   </sheetData>
@@ -34357,28 +34357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.1049048852352</v>
+        <v>154.4028904720099</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.0693177521222</v>
+        <v>211.2608465184859</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.1244565491661</v>
+        <v>191.0984078332823</v>
       </c>
       <c r="AD2" t="n">
-        <v>122104.9048852352</v>
+        <v>154402.8904720099</v>
       </c>
       <c r="AE2" t="n">
-        <v>167069.3177521222</v>
+        <v>211260.8465184859</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.010578118918845e-06</v>
+        <v>6.022623454565108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.263888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>151124.4565491661</v>
+        <v>191098.4078332823</v>
       </c>
     </row>
     <row r="3">
@@ -34463,28 +34463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.1361798017158</v>
+        <v>138.5194167345111</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.2202036024318</v>
+        <v>189.5283770214447</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.3605911884909</v>
+        <v>171.4400547233192</v>
       </c>
       <c r="AD3" t="n">
-        <v>106136.1798017158</v>
+        <v>138519.4167345111</v>
       </c>
       <c r="AE3" t="n">
-        <v>145220.2036024318</v>
+        <v>189528.3770214447</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.322590879412789e-06</v>
+        <v>6.491168216381392e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.667824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>131360.5911884909</v>
+        <v>171440.0547233192</v>
       </c>
     </row>
     <row r="4">
@@ -34569,28 +34569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.6562301722443</v>
+        <v>135.8688749044474</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.8270271117345</v>
+        <v>185.9017887559005</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.2912546997115</v>
+        <v>168.1595829518889</v>
       </c>
       <c r="AD4" t="n">
-        <v>103656.2301722443</v>
+        <v>135868.8749044474</v>
       </c>
       <c r="AE4" t="n">
-        <v>141827.0271117345</v>
+        <v>185901.7887559005</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.430088667857563e-06</v>
+        <v>6.652595991331679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>128291.2546997116</v>
+        <v>168159.5829518889</v>
       </c>
     </row>
     <row r="5">
@@ -34675,28 +34675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.7039431741716</v>
+        <v>135.9165879063747</v>
       </c>
       <c r="AB5" t="n">
-        <v>141.8923101459205</v>
+        <v>185.9670717900865</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.3503072127402</v>
+        <v>168.2186354649175</v>
       </c>
       <c r="AD5" t="n">
-        <v>103703.9431741716</v>
+        <v>135916.5879063747</v>
       </c>
       <c r="AE5" t="n">
-        <v>141892.3101459205</v>
+        <v>185967.0717900865</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.428485078045921e-06</v>
+        <v>6.650187905184312e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>128350.3072127402</v>
+        <v>168218.6354649175</v>
       </c>
     </row>
   </sheetData>
@@ -34972,28 +34972,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.92777086717473</v>
+        <v>130.360538835496</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.3573404856396</v>
+        <v>178.3650403357285</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.4390258849469</v>
+        <v>161.3421312230429</v>
       </c>
       <c r="AD2" t="n">
-        <v>98927.77086717472</v>
+        <v>130360.538835496</v>
       </c>
       <c r="AE2" t="n">
-        <v>135357.3404856396</v>
+        <v>178365.0403357285</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.501394348129386e-06</v>
+        <v>6.903998946878026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.667824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>122439.0258849469</v>
+        <v>161342.1312230428</v>
       </c>
     </row>
     <row r="3">
@@ -35078,28 +35078,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.02543068459863</v>
+        <v>130.4581986529199</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.490962956286</v>
+        <v>178.4986628063749</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.5598956145351</v>
+        <v>161.4630009526311</v>
       </c>
       <c r="AD3" t="n">
-        <v>99025.43068459863</v>
+        <v>130458.1986529199</v>
       </c>
       <c r="AE3" t="n">
-        <v>135490.962956286</v>
+        <v>178498.6628063749</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.50026085629841e-06</v>
+        <v>6.902260457467382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>122559.8956145351</v>
+        <v>161463.0009526311</v>
       </c>
     </row>
   </sheetData>
@@ -61620,28 +61620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.6811250446712</v>
+        <v>347.598086691705</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.8815186478565</v>
+        <v>475.5990371568905</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.5763351137613</v>
+        <v>430.2085325580771</v>
       </c>
       <c r="AD2" t="n">
-        <v>285681.1250446712</v>
+        <v>347598.086691705</v>
       </c>
       <c r="AE2" t="n">
-        <v>390881.5186478565</v>
+        <v>475599.0371568904</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.197462775828195e-06</v>
+        <v>3.119516462341503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.34490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>353576.3351137613</v>
+        <v>430208.5325580771</v>
       </c>
     </row>
     <row r="3">
@@ -61726,28 +61726,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.655406573964</v>
+        <v>281.7027176713398</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.8564148389453</v>
+        <v>385.4380861647184</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.997837703545</v>
+        <v>348.6524161869084</v>
       </c>
       <c r="AD3" t="n">
-        <v>228655.406573964</v>
+        <v>281702.7176713397</v>
       </c>
       <c r="AE3" t="n">
-        <v>312856.4148389453</v>
+        <v>385438.0861647184</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.585342723000414e-06</v>
+        <v>3.670150536295205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>282997.8377035451</v>
+        <v>348652.4161869084</v>
       </c>
     </row>
     <row r="4">
@@ -61832,28 +61832,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>200.3112583124876</v>
+        <v>244.5742597147707</v>
       </c>
       <c r="AB4" t="n">
-        <v>274.0747007320442</v>
+        <v>334.6372919964215</v>
       </c>
       <c r="AC4" t="n">
-        <v>247.9173959605166</v>
+        <v>302.6999785147717</v>
       </c>
       <c r="AD4" t="n">
-        <v>200311.2583124876</v>
+        <v>244574.2597147707</v>
       </c>
       <c r="AE4" t="n">
-        <v>274074.7007320442</v>
+        <v>334637.2919964215</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.859974899835611e-06</v>
+        <v>4.060018162791492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.25462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>247917.3959605166</v>
+        <v>302699.9785147717</v>
       </c>
     </row>
     <row r="5">
@@ -61938,28 +61938,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>179.4194918308802</v>
+        <v>223.7677445791839</v>
       </c>
       <c r="AB5" t="n">
-        <v>245.489664152235</v>
+        <v>306.1689000692616</v>
       </c>
       <c r="AC5" t="n">
-        <v>222.0604751525245</v>
+        <v>276.9485699574919</v>
       </c>
       <c r="AD5" t="n">
-        <v>179419.4918308802</v>
+        <v>223767.7445791839</v>
       </c>
       <c r="AE5" t="n">
-        <v>245489.664152235</v>
+        <v>306168.9000692616</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.073904244964431e-06</v>
+        <v>4.363712096198746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.537037037037038</v>
       </c>
       <c r="AH5" t="n">
-        <v>222060.4751525245</v>
+        <v>276948.5699574919</v>
       </c>
     </row>
     <row r="6">
@@ -62044,28 +62044,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.0741606893764</v>
+        <v>207.5528523965704</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.439458031295</v>
+        <v>283.9829692344647</v>
       </c>
       <c r="AC6" t="n">
-        <v>212.969446598211</v>
+        <v>256.8800332234115</v>
       </c>
       <c r="AD6" t="n">
-        <v>172074.1606893764</v>
+        <v>207552.8523965704</v>
       </c>
       <c r="AE6" t="n">
-        <v>235439.458031295</v>
+        <v>283982.9692344647</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.224951942223789e-06</v>
+        <v>4.578139290771705e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.091435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>212969.446598211</v>
+        <v>256880.0332234115</v>
       </c>
     </row>
     <row r="7">
@@ -62150,28 +62150,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.1647420989209</v>
+        <v>201.4276539926529</v>
       </c>
       <c r="AB7" t="n">
-        <v>215.039733758718</v>
+        <v>275.6022025535469</v>
       </c>
       <c r="AC7" t="n">
-        <v>194.5166433790094</v>
+        <v>249.299115152038</v>
       </c>
       <c r="AD7" t="n">
-        <v>157164.7420989209</v>
+        <v>201427.6539926529</v>
       </c>
       <c r="AE7" t="n">
-        <v>215039.733758718</v>
+        <v>275602.2025535469</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.358214419175185e-06</v>
+        <v>4.767318600307725e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.732638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>194516.6433790094</v>
+        <v>249299.115152038</v>
       </c>
     </row>
     <row r="8">
@@ -62256,28 +62256,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>152.7933066163824</v>
+        <v>188.1866574690047</v>
       </c>
       <c r="AB8" t="n">
-        <v>209.0585428773894</v>
+        <v>257.4852869583613</v>
       </c>
       <c r="AC8" t="n">
-        <v>189.1062889607387</v>
+        <v>232.9112525540004</v>
       </c>
       <c r="AD8" t="n">
-        <v>152793.3066163824</v>
+        <v>188186.6574690047</v>
       </c>
       <c r="AE8" t="n">
-        <v>209058.5428773894</v>
+        <v>257485.2869583613</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.464368369446354e-06</v>
+        <v>4.918014666268928e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.466435185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>189106.2889607387</v>
+        <v>232911.2525540004</v>
       </c>
     </row>
     <row r="9">
@@ -62362,28 +62362,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>149.1508220865818</v>
+        <v>184.5441729392041</v>
       </c>
       <c r="AB9" t="n">
-        <v>204.0747348486425</v>
+        <v>252.5014789296145</v>
       </c>
       <c r="AC9" t="n">
-        <v>184.5981285754353</v>
+        <v>228.403092168697</v>
       </c>
       <c r="AD9" t="n">
-        <v>149150.8220865818</v>
+        <v>184544.1729392041</v>
       </c>
       <c r="AE9" t="n">
-        <v>204074.7348486425</v>
+        <v>252501.4789296145</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.557804113742314e-06</v>
+        <v>5.050655976833347e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.240740740740742</v>
       </c>
       <c r="AH9" t="n">
-        <v>184598.1285754353</v>
+        <v>228403.092168697</v>
       </c>
     </row>
     <row r="10">
@@ -62468,28 +62468,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>146.0122676953532</v>
+        <v>181.4056185479756</v>
       </c>
       <c r="AB10" t="n">
-        <v>199.7804262673183</v>
+        <v>248.2071703482902</v>
       </c>
       <c r="AC10" t="n">
-        <v>180.7136627780114</v>
+        <v>224.518626371273</v>
       </c>
       <c r="AD10" t="n">
-        <v>146012.2676953532</v>
+        <v>181405.6185479756</v>
       </c>
       <c r="AE10" t="n">
-        <v>199780.4262673183</v>
+        <v>248207.1703482902</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.636950877619911e-06</v>
+        <v>5.163012661812535e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>180713.6627780113</v>
+        <v>224518.626371273</v>
       </c>
     </row>
     <row r="11">
@@ -62574,28 +62574,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>133.4436756978747</v>
+        <v>168.9222778965177</v>
       </c>
       <c r="AB11" t="n">
-        <v>182.5835242092317</v>
+        <v>231.1269129428529</v>
       </c>
       <c r="AC11" t="n">
-        <v>165.1580089163395</v>
+        <v>209.0684847603133</v>
       </c>
       <c r="AD11" t="n">
-        <v>133443.6756978747</v>
+        <v>168922.2778965177</v>
       </c>
       <c r="AE11" t="n">
-        <v>182583.5242092317</v>
+        <v>231126.9129428529</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.73145069492575e-06</v>
+        <v>5.297164529601386e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.858796296296297</v>
       </c>
       <c r="AH11" t="n">
-        <v>165158.0089163395</v>
+        <v>209068.4847603134</v>
       </c>
     </row>
     <row r="12">
@@ -62680,28 +62680,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.4941993210136</v>
+        <v>165.9728015196565</v>
       </c>
       <c r="AB12" t="n">
-        <v>178.547920508698</v>
+        <v>227.0913092423192</v>
       </c>
       <c r="AC12" t="n">
-        <v>161.5075575689781</v>
+        <v>205.418033412952</v>
       </c>
       <c r="AD12" t="n">
-        <v>130494.1993210136</v>
+        <v>165972.8015196565</v>
       </c>
       <c r="AE12" t="n">
-        <v>178547.9205086979</v>
+        <v>227091.3092423192</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.804466371460716e-06</v>
+        <v>5.400817527715989e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>161507.5575689781</v>
+        <v>205418.0334129519</v>
       </c>
     </row>
     <row r="13">
@@ -62786,28 +62786,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>131.8912106813428</v>
+        <v>167.3698128799858</v>
       </c>
       <c r="AB13" t="n">
-        <v>180.459373083691</v>
+        <v>229.0027618173122</v>
       </c>
       <c r="AC13" t="n">
-        <v>163.2365837929549</v>
+        <v>207.1470596369288</v>
       </c>
       <c r="AD13" t="n">
-        <v>131891.2106813428</v>
+        <v>167369.8128799858</v>
       </c>
       <c r="AE13" t="n">
-        <v>180459.373083691</v>
+        <v>229002.7618173122</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.766210413248434e-06</v>
+        <v>5.346509398932836e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.783564814814814</v>
       </c>
       <c r="AH13" t="n">
-        <v>163236.5837929549</v>
+        <v>207147.0596369288</v>
       </c>
     </row>
     <row r="14">
@@ -62892,28 +62892,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>128.9879864051088</v>
+        <v>164.4665886037517</v>
       </c>
       <c r="AB14" t="n">
-        <v>176.487053547734</v>
+        <v>225.0304422813552</v>
       </c>
       <c r="AC14" t="n">
-        <v>159.6433768583229</v>
+        <v>203.5538527022968</v>
       </c>
       <c r="AD14" t="n">
-        <v>128987.9864051088</v>
+        <v>164466.5886037517</v>
       </c>
       <c r="AE14" t="n">
-        <v>176487.053547734</v>
+        <v>225030.4422813552</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.831574898140943e-06</v>
+        <v>5.439300771290808e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.650462962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>159643.3768583229</v>
+        <v>203553.8527022967</v>
       </c>
     </row>
     <row r="15">
@@ -62998,28 +62998,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>126.8402572175673</v>
+        <v>162.3188594162103</v>
       </c>
       <c r="AB15" t="n">
-        <v>173.5484357222167</v>
+        <v>222.0918244558379</v>
       </c>
       <c r="AC15" t="n">
-        <v>156.985216593696</v>
+        <v>200.8956924376699</v>
       </c>
       <c r="AD15" t="n">
-        <v>126840.2572175673</v>
+        <v>162318.8594162103</v>
       </c>
       <c r="AE15" t="n">
-        <v>173548.4357222167</v>
+        <v>222091.8244558379</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.88183968032185e-06</v>
+        <v>5.510656617321124e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.552083333333335</v>
       </c>
       <c r="AH15" t="n">
-        <v>156985.216593696</v>
+        <v>200895.6924376699</v>
       </c>
     </row>
     <row r="16">
@@ -63104,28 +63104,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>125.1033286154843</v>
+        <v>160.411338613535</v>
       </c>
       <c r="AB16" t="n">
-        <v>171.1718933809661</v>
+        <v>219.4818703397405</v>
       </c>
       <c r="AC16" t="n">
-        <v>154.8354881179955</v>
+        <v>198.5348286793184</v>
       </c>
       <c r="AD16" t="n">
-        <v>125103.3286154843</v>
+        <v>160411.338613535</v>
       </c>
       <c r="AE16" t="n">
-        <v>171171.8933809661</v>
+        <v>219481.8703397405</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.930178997056312e-06</v>
+        <v>5.579279074088183e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.459490740740741</v>
       </c>
       <c r="AH16" t="n">
-        <v>154835.4881179955</v>
+        <v>198534.8286793184</v>
       </c>
     </row>
     <row r="17">
@@ -63210,28 +63210,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>124.8464180837833</v>
+        <v>160.1544280818341</v>
       </c>
       <c r="AB17" t="n">
-        <v>170.8203770574002</v>
+        <v>219.1303540161746</v>
       </c>
       <c r="AC17" t="n">
-        <v>154.5175200189943</v>
+        <v>198.2168605803172</v>
       </c>
       <c r="AD17" t="n">
-        <v>124846.4180837833</v>
+        <v>160154.428081834</v>
       </c>
       <c r="AE17" t="n">
-        <v>170820.3770574002</v>
+        <v>219130.3540161746</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.922933166560474e-06</v>
+        <v>5.568992898702764e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.476851851851852</v>
       </c>
       <c r="AH17" t="n">
-        <v>154517.5200189943</v>
+        <v>198216.8605803172</v>
       </c>
     </row>
     <row r="18">
@@ -63316,28 +63316,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>124.2920133187076</v>
+        <v>159.6000233167584</v>
       </c>
       <c r="AB18" t="n">
-        <v>170.061815999212</v>
+        <v>218.3717929579864</v>
       </c>
       <c r="AC18" t="n">
-        <v>153.8313549635523</v>
+        <v>197.5306955248751</v>
       </c>
       <c r="AD18" t="n">
-        <v>124292.0133187076</v>
+        <v>159600.0233167584</v>
       </c>
       <c r="AE18" t="n">
-        <v>170061.815999212</v>
+        <v>218371.7929579864</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.947457515930998e-06</v>
+        <v>5.603807646161104e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.430555555555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>153831.3549635523</v>
+        <v>197530.6955248751</v>
       </c>
     </row>
     <row r="19">
@@ -63422,28 +63422,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>124.3717889989987</v>
+        <v>159.6797989970494</v>
       </c>
       <c r="AB19" t="n">
-        <v>170.1709686044408</v>
+        <v>218.4809455632152</v>
       </c>
       <c r="AC19" t="n">
-        <v>153.9300901973347</v>
+        <v>197.6294307586576</v>
       </c>
       <c r="AD19" t="n">
-        <v>124371.7889989987</v>
+        <v>159679.7989970494</v>
       </c>
       <c r="AE19" t="n">
-        <v>170170.9686044408</v>
+        <v>218480.9455632152</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.947052154784378e-06</v>
+        <v>5.603232195789891e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>8</v>
+        <v>7.430555555555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>153930.0901973347</v>
+        <v>197629.4307586576</v>
       </c>
     </row>
   </sheetData>
@@ -63719,28 +63719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.42550111260402</v>
+        <v>134.5961198539173</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.9336246150872</v>
+        <v>184.1603491457762</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.3420646518635</v>
+        <v>166.5843438940284</v>
       </c>
       <c r="AD2" t="n">
-        <v>96425.50111260402</v>
+        <v>134596.1198539173</v>
       </c>
       <c r="AE2" t="n">
-        <v>131933.6246150872</v>
+        <v>184160.3491457762</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.464064380549602e-06</v>
+        <v>6.975012539307005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.997685185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>119342.0646518635</v>
+        <v>166584.3438940284</v>
       </c>
     </row>
   </sheetData>
@@ -64016,28 +64016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2189282691705</v>
+        <v>144.5071168644013</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.0699119399793</v>
+        <v>197.7210124978426</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.9383273618946</v>
+        <v>178.8507965682885</v>
       </c>
       <c r="AD2" t="n">
-        <v>108218.9282691705</v>
+        <v>144507.1168644013</v>
       </c>
       <c r="AE2" t="n">
-        <v>148069.9119399793</v>
+        <v>197721.0124978426</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.079853725574484e-06</v>
+        <v>6.648840243090004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.398148148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>133938.3273618945</v>
+        <v>178850.7965682885</v>
       </c>
     </row>
   </sheetData>
@@ -64313,28 +64313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.3372922006032</v>
+        <v>182.5261642660386</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.3298714851273</v>
+        <v>249.7403504347314</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.8289153294207</v>
+        <v>225.9054819020965</v>
       </c>
       <c r="AD2" t="n">
-        <v>149337.2922006032</v>
+        <v>182526.1642660386</v>
       </c>
       <c r="AE2" t="n">
-        <v>204329.8714851273</v>
+        <v>249740.3504347314</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.506217339137532e-06</v>
+        <v>5.180018194188266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.143518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>184828.9153294206</v>
+        <v>225905.4819020965</v>
       </c>
     </row>
     <row r="3">
@@ -64419,28 +64419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.3711863255045</v>
+        <v>163.4747175363683</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.3796087012922</v>
+        <v>223.6733205286987</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.355309204244</v>
+        <v>202.326252744981</v>
       </c>
       <c r="AD3" t="n">
-        <v>130371.1863255045</v>
+        <v>163474.7175363683</v>
       </c>
       <c r="AE3" t="n">
-        <v>178379.6087012922</v>
+        <v>223673.3205286987</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.831762614618381e-06</v>
+        <v>5.660972535266744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>161355.309204244</v>
+        <v>202326.252744981</v>
       </c>
     </row>
     <row r="4">
@@ -64525,28 +64525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.0339422412916</v>
+        <v>148.2227247981759</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.3945147138279</v>
+        <v>202.8048711938836</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.3730031341722</v>
+        <v>183.4494589256214</v>
       </c>
       <c r="AD4" t="n">
-        <v>115033.9422412916</v>
+        <v>148222.7247981759</v>
       </c>
       <c r="AE4" t="n">
-        <v>157394.5147138279</v>
+        <v>202804.8711938836</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.080089902346924e-06</v>
+        <v>6.027846503457117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.858796296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>142373.0031341722</v>
+        <v>183449.4589256214</v>
       </c>
     </row>
     <row r="5">
@@ -64631,28 +64631,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.4059437942695</v>
+        <v>143.5947263511539</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.0622830657338</v>
+        <v>196.4726395457895</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.6451107872272</v>
+        <v>177.7215665786765</v>
       </c>
       <c r="AD5" t="n">
-        <v>110405.9437942695</v>
+        <v>143594.7263511539</v>
       </c>
       <c r="AE5" t="n">
-        <v>151062.2830657338</v>
+        <v>196472.6395457895</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.246103036703926e-06</v>
+        <v>6.273111121495606e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.552083333333335</v>
       </c>
       <c r="AH5" t="n">
-        <v>136645.1107872272</v>
+        <v>177721.5665786765</v>
       </c>
     </row>
     <row r="6">
@@ -64737,28 +64737,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.1044860428461</v>
+        <v>141.1226763991382</v>
       </c>
       <c r="AB6" t="n">
-        <v>147.9133270370876</v>
+        <v>193.0902717422965</v>
       </c>
       <c r="AC6" t="n">
-        <v>133.7966867023665</v>
+        <v>174.6620072111648</v>
       </c>
       <c r="AD6" t="n">
-        <v>108104.4860428461</v>
+        <v>141122.6763991382</v>
       </c>
       <c r="AE6" t="n">
-        <v>147913.3270370876</v>
+        <v>193090.2717422965</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.330411341839514e-06</v>
+        <v>6.397666593185489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.40162037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>133796.6867023665</v>
+        <v>174662.0072111648</v>
       </c>
     </row>
     <row r="7">
@@ -64843,28 +64843,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.1004681457412</v>
+        <v>141.1186585020334</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.9078295730117</v>
+        <v>193.0847742782206</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.7917139085463</v>
+        <v>174.6570344173444</v>
       </c>
       <c r="AD7" t="n">
-        <v>108100.4681457412</v>
+        <v>141118.6585020334</v>
       </c>
       <c r="AE7" t="n">
-        <v>147907.8295730117</v>
+        <v>193084.7742782205</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.326367645206861e-06</v>
+        <v>6.3916925134001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.407407407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>133791.7139085463</v>
+        <v>174657.0344173445</v>
       </c>
     </row>
   </sheetData>
@@ -65140,28 +65140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.5187546795517</v>
+        <v>230.0784175370638</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.5714328960407</v>
+        <v>314.8034412174704</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.084615440785</v>
+        <v>284.7590426171731</v>
       </c>
       <c r="AD2" t="n">
-        <v>187518.7546795517</v>
+        <v>230078.4175370638</v>
       </c>
       <c r="AE2" t="n">
-        <v>256571.4328960407</v>
+        <v>314803.4412174704</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.950926835884104e-06</v>
+        <v>4.285244518458473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>232084.615440785</v>
+        <v>284759.0426171731</v>
       </c>
     </row>
     <row r="3">
@@ -65246,28 +65246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.3245913597704</v>
+        <v>203.7989133627108</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.7314230370066</v>
+        <v>278.8466642362388</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.665125820916</v>
+        <v>252.2339299653653</v>
       </c>
       <c r="AD3" t="n">
-        <v>161324.5913597704</v>
+        <v>203798.9133627108</v>
       </c>
       <c r="AE3" t="n">
-        <v>220731.4230370066</v>
+        <v>278846.6642362388</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.313847653444223e-06</v>
+        <v>4.812266884845954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>199665.125820916</v>
+        <v>252233.9299653653</v>
       </c>
     </row>
     <row r="4">
@@ -65352,28 +65352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.1523534868613</v>
+        <v>185.7119268358223</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.8673654767514</v>
+        <v>254.0992513286327</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.1740590172796</v>
+        <v>229.8483754124411</v>
       </c>
       <c r="AD4" t="n">
-        <v>143152.3534868613</v>
+        <v>185711.9268358223</v>
       </c>
       <c r="AE4" t="n">
-        <v>195867.3654767514</v>
+        <v>254099.2513286327</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.561684299411517e-06</v>
+        <v>5.172167583057027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.674768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>177174.0590172796</v>
+        <v>229848.3754124411</v>
       </c>
     </row>
     <row r="5">
@@ -65458,28 +65458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.2388332023378</v>
+        <v>171.2695132191433</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.7762261373678</v>
+        <v>234.3385038639817</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.8551266604588</v>
+        <v>211.9735659514268</v>
       </c>
       <c r="AD5" t="n">
-        <v>137238.8332023378</v>
+        <v>171269.5132191433</v>
       </c>
       <c r="AE5" t="n">
-        <v>187776.2261373678</v>
+        <v>234338.5038639817</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.733349742752206e-06</v>
+        <v>5.421454820930559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.275462962962964</v>
       </c>
       <c r="AH5" t="n">
-        <v>169855.1266604588</v>
+        <v>211973.5659514268</v>
       </c>
     </row>
     <row r="6">
@@ -65564,28 +65564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.1406182862239</v>
+        <v>157.25654964905</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.4864265198047</v>
+        <v>215.1653488990679</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.4063184449861</v>
+        <v>194.6302699866662</v>
       </c>
       <c r="AD6" t="n">
-        <v>123140.6182862239</v>
+        <v>157256.54964905</v>
       </c>
       <c r="AE6" t="n">
-        <v>168486.4265198047</v>
+        <v>215165.3488990678</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.903146936554049e-06</v>
+        <v>5.668029044710316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>152406.3184449861</v>
+        <v>194630.2699866662</v>
       </c>
     </row>
     <row r="7">
@@ -65670,28 +65670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.2981425411292</v>
+        <v>153.4140739039553</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.2289816873029</v>
+        <v>209.9079040665661</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.6506367684264</v>
+        <v>189.8745883101066</v>
       </c>
       <c r="AD7" t="n">
-        <v>119298.1425411292</v>
+        <v>153414.0739039553</v>
       </c>
       <c r="AE7" t="n">
-        <v>163228.9816873029</v>
+        <v>209907.9040665661</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.022608149923595e-06</v>
+        <v>5.841506917334994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.679398148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>147650.6367684264</v>
+        <v>189874.5883101066</v>
       </c>
     </row>
     <row r="8">
@@ -65776,28 +65776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>115.4168957529174</v>
+        <v>149.3622349151513</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.9184886031506</v>
+        <v>204.363999207567</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.8469696909001</v>
+        <v>184.8597859499293</v>
       </c>
       <c r="AD8" t="n">
-        <v>115416.8957529174</v>
+        <v>149362.2349151513</v>
       </c>
       <c r="AE8" t="n">
-        <v>157918.4886031506</v>
+        <v>204363.999207567</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.146873433535884e-06</v>
+        <v>6.021961111915088e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>142846.9696909001</v>
+        <v>184859.7859499293</v>
       </c>
     </row>
     <row r="9">
@@ -65882,28 +65882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>115.3159746227625</v>
+        <v>149.2613137849964</v>
       </c>
       <c r="AB9" t="n">
-        <v>157.7804038605468</v>
+        <v>204.2259144649631</v>
       </c>
       <c r="AC9" t="n">
-        <v>142.7220635623271</v>
+        <v>184.7348798213563</v>
       </c>
       <c r="AD9" t="n">
-        <v>115315.9746227625</v>
+        <v>149261.3137849965</v>
       </c>
       <c r="AE9" t="n">
-        <v>157780.4038605468</v>
+        <v>204225.9144649631</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.135984207652334e-06</v>
+        <v>6.006148115482812e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.471064814814816</v>
       </c>
       <c r="AH9" t="n">
-        <v>142722.0635623271</v>
+        <v>184734.8798213563</v>
       </c>
     </row>
     <row r="10">
@@ -65988,28 +65988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>113.7147275966257</v>
+        <v>147.6600667588596</v>
       </c>
       <c r="AB10" t="n">
-        <v>155.5895070373542</v>
+        <v>202.0350176417706</v>
       </c>
       <c r="AC10" t="n">
-        <v>140.7402628569964</v>
+        <v>182.7530791160256</v>
       </c>
       <c r="AD10" t="n">
-        <v>113714.7275966257</v>
+        <v>147660.0667588596</v>
       </c>
       <c r="AE10" t="n">
-        <v>155589.5070373542</v>
+        <v>202035.0176417706</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.192672236516702e-06</v>
+        <v>6.08846871455672e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.366898148148149</v>
       </c>
       <c r="AH10" t="n">
-        <v>140740.2628569964</v>
+        <v>182753.0791160256</v>
       </c>
     </row>
   </sheetData>
@@ -66285,28 +66285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.0564088517245</v>
+        <v>294.3613227175626</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.1922573658628</v>
+        <v>402.7581480472011</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.5837331542161</v>
+        <v>364.3194756721865</v>
       </c>
       <c r="AD2" t="n">
-        <v>242056.4088517245</v>
+        <v>294361.3227175626</v>
       </c>
       <c r="AE2" t="n">
-        <v>331192.2573658628</v>
+        <v>402758.1480472011</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.492140073069627e-06</v>
+        <v>3.569258841809838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.01388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>299583.7331542161</v>
+        <v>364319.4756721865</v>
       </c>
     </row>
     <row r="3">
@@ -66391,28 +66391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.0529155382448</v>
+        <v>239.6261352021034</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.2482482835036</v>
+        <v>327.8670497423465</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.6470119561856</v>
+        <v>296.5758786793288</v>
       </c>
       <c r="AD3" t="n">
-        <v>196052.9155382448</v>
+        <v>239626.1352021034</v>
       </c>
       <c r="AE3" t="n">
-        <v>268248.2482835036</v>
+        <v>327867.0497423465</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.87853482128454e-06</v>
+        <v>4.122655854440932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.39930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>242647.0119561856</v>
+        <v>296575.8786793288</v>
       </c>
     </row>
     <row r="4">
@@ -66497,28 +66497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.9794359204512</v>
+        <v>216.6379069303304</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.6780955403755</v>
+        <v>296.4135416518675</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.0898702818639</v>
+        <v>268.1242492557193</v>
       </c>
       <c r="AD4" t="n">
-        <v>172979.4359204512</v>
+        <v>216637.9069303304</v>
       </c>
       <c r="AE4" t="n">
-        <v>236678.0955403755</v>
+        <v>296413.5416518676</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.144443109653084e-06</v>
+        <v>4.503491393994261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.519675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>214089.8702818638</v>
+        <v>268124.2492557193</v>
       </c>
     </row>
     <row r="5">
@@ -66603,28 +66603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.5219609770541</v>
+        <v>199.0950911323617</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.7920081533929</v>
+        <v>272.4106871426874</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.4834375507531</v>
+        <v>246.4121934926698</v>
       </c>
       <c r="AD5" t="n">
-        <v>155521.9609770541</v>
+        <v>199095.0911323617</v>
       </c>
       <c r="AE5" t="n">
-        <v>212792.0081533929</v>
+        <v>272410.6871426874</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.335907423904443e-06</v>
+        <v>4.777707800976144e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.975694444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>192483.4375507531</v>
+        <v>246412.1934926698</v>
       </c>
     </row>
     <row r="6">
@@ -66709,28 +66709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.7797600550736</v>
+        <v>183.7918777175486</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.5670314070317</v>
+        <v>251.472155418423</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.1388796377255</v>
+        <v>227.4720058487487</v>
       </c>
       <c r="AD6" t="n">
-        <v>148779.7600550736</v>
+        <v>183791.8777175486</v>
       </c>
       <c r="AE6" t="n">
-        <v>203567.0314070318</v>
+        <v>251472.155418423</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.503367565820587e-06</v>
+        <v>5.017545279873835e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.547453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>184138.8796377255</v>
+        <v>227472.0058487487</v>
       </c>
     </row>
     <row r="7">
@@ -66815,28 +66815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>144.3245036299349</v>
+        <v>179.1660290918176</v>
       </c>
       <c r="AB7" t="n">
-        <v>197.4711530141185</v>
+        <v>245.1428652506629</v>
       </c>
       <c r="AC7" t="n">
-        <v>178.6247833230109</v>
+        <v>221.746774251383</v>
       </c>
       <c r="AD7" t="n">
-        <v>144324.5036299349</v>
+        <v>179166.0290918176</v>
       </c>
       <c r="AE7" t="n">
-        <v>197471.1530141185</v>
+        <v>245142.8652506629</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.623802292536923e-06</v>
+        <v>5.190032660434176e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.263888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>178624.7833230109</v>
+        <v>221746.774251383</v>
       </c>
     </row>
     <row r="8">
@@ -66921,28 +66921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>140.8863978138235</v>
+        <v>175.7279232757062</v>
       </c>
       <c r="AB8" t="n">
-        <v>192.7669849579935</v>
+        <v>240.438697194538</v>
       </c>
       <c r="AC8" t="n">
-        <v>174.3695744638197</v>
+        <v>217.4915653921919</v>
       </c>
       <c r="AD8" t="n">
-        <v>140886.3978138235</v>
+        <v>175727.9232757062</v>
       </c>
       <c r="AE8" t="n">
-        <v>192766.9849579936</v>
+        <v>240438.697194538</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.716249395905521e-06</v>
+        <v>5.322435989068768e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>174369.5744638197</v>
+        <v>217491.5653921919</v>
       </c>
     </row>
     <row r="9">
@@ -67027,28 +67027,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.4736925115344</v>
+        <v>163.4004693194377</v>
       </c>
       <c r="AB9" t="n">
-        <v>175.7833739535006</v>
+        <v>223.5717308426943</v>
       </c>
       <c r="AC9" t="n">
-        <v>159.0068554569424</v>
+        <v>202.2343586360268</v>
       </c>
       <c r="AD9" t="n">
-        <v>128473.6925115344</v>
+        <v>163400.4693194377</v>
       </c>
       <c r="AE9" t="n">
-        <v>175783.3739535006</v>
+        <v>223571.7308426943</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.819043125280675e-06</v>
+        <v>5.469657821187924e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.841435185185186</v>
       </c>
       <c r="AH9" t="n">
-        <v>159006.8554569424</v>
+        <v>202234.3586360268</v>
       </c>
     </row>
     <row r="10">
@@ -67133,28 +67133,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>124.5549497009337</v>
+        <v>159.4817265088371</v>
       </c>
       <c r="AB10" t="n">
-        <v>170.4215771573081</v>
+        <v>218.2099340465017</v>
       </c>
       <c r="AC10" t="n">
-        <v>154.1567810216477</v>
+        <v>197.3842842007321</v>
       </c>
       <c r="AD10" t="n">
-        <v>124554.9497009337</v>
+        <v>159481.726508837</v>
       </c>
       <c r="AE10" t="n">
-        <v>170421.5771573081</v>
+        <v>218209.9340465017</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.930993618671635e-06</v>
+        <v>5.629994028890921e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.61574074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>154156.7810216477</v>
+        <v>197384.2842007321</v>
       </c>
     </row>
     <row r="11">
@@ -67239,28 +67239,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.5959090763147</v>
+        <v>160.522685884218</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.8458636985901</v>
+        <v>219.6342205877837</v>
       </c>
       <c r="AC11" t="n">
-        <v>155.445135654429</v>
+        <v>198.6726388335133</v>
       </c>
       <c r="AD11" t="n">
-        <v>125595.9090763147</v>
+        <v>160522.685884218</v>
       </c>
       <c r="AE11" t="n">
-        <v>171845.8636985901</v>
+        <v>219634.2205877838</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.891728172976747e-06</v>
+        <v>5.573757808166997e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH11" t="n">
-        <v>155445.1356544289</v>
+        <v>198672.6388335133</v>
       </c>
     </row>
     <row r="12">
@@ -67345,28 +67345,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>121.8945773992154</v>
+        <v>156.6507620065266</v>
       </c>
       <c r="AB12" t="n">
-        <v>166.7815384067563</v>
+        <v>214.3364835211032</v>
       </c>
       <c r="AC12" t="n">
-        <v>150.864142460621</v>
+        <v>193.8805103570544</v>
       </c>
       <c r="AD12" t="n">
-        <v>121894.5773992154</v>
+        <v>156650.7620065266</v>
       </c>
       <c r="AE12" t="n">
-        <v>166781.5384067563</v>
+        <v>214336.4835211032</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.99338377349118e-06</v>
+        <v>5.719349604902851e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.494212962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>150864.142460621</v>
+        <v>193880.5103570544</v>
       </c>
     </row>
     <row r="13">
@@ -67451,28 +67451,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>120.0637636503448</v>
+        <v>154.819948257656</v>
       </c>
       <c r="AB13" t="n">
-        <v>164.2765382657507</v>
+        <v>211.8314833800975</v>
       </c>
       <c r="AC13" t="n">
-        <v>148.5982160172824</v>
+        <v>191.6145839137157</v>
       </c>
       <c r="AD13" t="n">
-        <v>120063.7636503448</v>
+        <v>154819.948257656</v>
       </c>
       <c r="AE13" t="n">
-        <v>164276.5382657507</v>
+        <v>211831.4833800975</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.039477992350397e-06</v>
+        <v>5.78536603792659e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH13" t="n">
-        <v>148598.2160172824</v>
+        <v>191614.5839137157</v>
       </c>
     </row>
     <row r="14">
@@ -67557,28 +67557,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>120.1433659929686</v>
+        <v>154.8995506002797</v>
       </c>
       <c r="AB14" t="n">
-        <v>164.385453702736</v>
+        <v>211.9403988170828</v>
       </c>
       <c r="AC14" t="n">
-        <v>148.6967367178256</v>
+        <v>191.7131046142589</v>
       </c>
       <c r="AD14" t="n">
-        <v>120143.3659929686</v>
+        <v>154899.5506002797</v>
       </c>
       <c r="AE14" t="n">
-        <v>164385.4537027359</v>
+        <v>211940.3988170828</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.033166550486396e-06</v>
+        <v>5.776326750801004e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.424768518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>148696.7367178256</v>
+        <v>191713.1046142589</v>
       </c>
     </row>
     <row r="15">
@@ -67663,28 +67663,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>120.1836611041251</v>
+        <v>154.9398457114363</v>
       </c>
       <c r="AB15" t="n">
-        <v>164.4405872515152</v>
+        <v>211.995532365862</v>
       </c>
       <c r="AC15" t="n">
-        <v>148.7466083980897</v>
+        <v>191.762976294523</v>
       </c>
       <c r="AD15" t="n">
-        <v>120183.6611041251</v>
+        <v>154939.8457114363</v>
       </c>
       <c r="AE15" t="n">
-        <v>164440.5872515152</v>
+        <v>211995.532365862</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.032390553535905e-06</v>
+        <v>5.775215363039662e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.424768518518519</v>
       </c>
       <c r="AH15" t="n">
-        <v>148746.6083980897</v>
+        <v>191762.976294523</v>
       </c>
     </row>
   </sheetData>
